--- a/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
@@ -211,9 +211,6 @@
     <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
-    <t>energy_chp_supercritical_waste_mix.central.producer.ad</t>
-  </si>
-  <si>
     <t>ccs_investment</t>
   </si>
   <si>
@@ -823,14 +820,17 @@
   <si>
     <t>http://refman.et-model.com/publications/1937</t>
   </si>
+  <si>
+    <t>energy_chp_supercritical_waste_mix.central_producer.ad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1660,15 +1660,15 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1679,15 +1679,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1748,18 +1748,18 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1767,7 +1767,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1784,7 +1784,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2837,7 +2837,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2859,7 +2861,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="49" customFormat="1">
@@ -3123,7 +3125,7 @@
     <row r="12" spans="2:11" ht="16" thickBot="1">
       <c r="B12" s="21"/>
       <c r="C12" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
@@ -3134,7 +3136,7 @@
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -3146,7 +3148,7 @@
     <row r="13" spans="2:11" ht="16" thickBot="1">
       <c r="B13" s="21"/>
       <c r="C13" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
@@ -3167,7 +3169,7 @@
     <row r="14" spans="2:11" ht="16" thickBot="1">
       <c r="B14" s="21"/>
       <c r="C14" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -3188,7 +3190,7 @@
     <row r="15" spans="2:11" ht="16" thickBot="1">
       <c r="B15" s="21"/>
       <c r="C15" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
@@ -3208,7 +3210,7 @@
     <row r="16" spans="2:11" ht="16" thickBot="1">
       <c r="B16" s="21"/>
       <c r="C16" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3228,7 +3230,7 @@
     <row r="17" spans="2:11" ht="16" thickBot="1">
       <c r="B17" s="21"/>
       <c r="C17" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3248,7 +3250,7 @@
     <row r="18" spans="2:11" ht="16" thickBot="1">
       <c r="B18" s="21"/>
       <c r="C18" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
@@ -3268,7 +3270,7 @@
     <row r="19" spans="2:11" ht="16" thickBot="1">
       <c r="B19" s="21"/>
       <c r="C19" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
@@ -3288,7 +3290,7 @@
     <row r="20" spans="2:11" ht="16" thickBot="1">
       <c r="B20" s="21"/>
       <c r="C20" s="64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
@@ -3308,7 +3310,7 @@
     <row r="21" spans="2:11" ht="16" thickBot="1">
       <c r="B21" s="21"/>
       <c r="C21" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>2</v>
@@ -3318,7 +3320,7 @@
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="70" t="s">
@@ -3330,7 +3332,7 @@
     <row r="22" spans="2:11" ht="16" thickBot="1">
       <c r="B22" s="21"/>
       <c r="C22" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -3340,7 +3342,7 @@
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="70" t="s">
@@ -3352,7 +3354,7 @@
     <row r="23" spans="2:11" ht="16" thickBot="1">
       <c r="B23" s="21"/>
       <c r="C23" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
@@ -3362,7 +3364,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="70" t="s">
@@ -3374,7 +3376,7 @@
     <row r="24" spans="2:11" ht="16" thickBot="1">
       <c r="B24" s="21"/>
       <c r="C24" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>2</v>
@@ -3384,7 +3386,7 @@
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="70" t="s">
@@ -3396,7 +3398,7 @@
     <row r="25" spans="2:11" ht="16" thickBot="1">
       <c r="B25" s="21"/>
       <c r="C25" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>2</v>
@@ -3406,7 +3408,7 @@
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="135" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -3447,7 +3449,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" s="41">
         <f>'Research data'!F19</f>
@@ -3459,7 +3461,7 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
@@ -3467,17 +3469,17 @@
     <row r="29" spans="2:11" ht="16" thickBot="1">
       <c r="B29" s="21"/>
       <c r="C29" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="41">
         <v>0</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25" t="s">
@@ -3492,14 +3494,14 @@
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="66">
         <v>0</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -3511,17 +3513,17 @@
     <row r="31" spans="2:11" ht="16" thickBot="1">
       <c r="B31" s="21"/>
       <c r="C31" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="66">
         <v>0</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="25" t="s">
@@ -3533,10 +3535,10 @@
     <row r="32" spans="2:11" ht="16" thickBot="1">
       <c r="B32" s="21"/>
       <c r="C32" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="66">
         <f>'Research data'!F22</f>
@@ -3544,11 +3546,11 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
@@ -3556,21 +3558,21 @@
     <row r="33" spans="2:11" ht="16" thickBot="1">
       <c r="B33" s="21"/>
       <c r="C33" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="41">
         <v>0</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
@@ -3578,17 +3580,17 @@
     <row r="34" spans="2:11" ht="16" thickBot="1">
       <c r="B34" s="21"/>
       <c r="C34" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="41">
         <v>0</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="25" t="s">
@@ -3600,17 +3602,17 @@
     <row r="35" spans="2:11" ht="16" thickBot="1">
       <c r="B35" s="21"/>
       <c r="C35" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E35" s="68">
         <v>0.1</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -3622,10 +3624,10 @@
     <row r="36" spans="2:11" ht="16" thickBot="1">
       <c r="B36" s="21"/>
       <c r="C36" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="63">
         <v>1</v>
@@ -3668,7 +3670,7 @@
     <row r="39" spans="2:11" ht="16" thickBot="1">
       <c r="B39" s="21"/>
       <c r="C39" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>1</v>
@@ -3679,7 +3681,7 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="87" t="s">
@@ -3706,7 +3708,7 @@
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="14"/>
@@ -3714,10 +3716,10 @@
     <row r="41" spans="2:11" ht="16" thickBot="1">
       <c r="B41" s="21"/>
       <c r="C41" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="E41" s="63">
         <f>'Research data'!F14</f>
@@ -3725,11 +3727,11 @@
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="14"/>
@@ -3747,7 +3749,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="25" t="s">
@@ -3759,10 +3761,10 @@
     <row r="43" spans="2:11" ht="16" thickBot="1">
       <c r="B43" s="21"/>
       <c r="C43" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E43" s="124"/>
       <c r="F43" s="136"/>
@@ -3777,10 +3779,10 @@
     <row r="44" spans="2:11" ht="16" thickBot="1">
       <c r="B44" s="21"/>
       <c r="C44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E44" s="127"/>
       <c r="F44" s="136"/>
@@ -3795,10 +3797,10 @@
     <row r="45" spans="2:11" ht="16" thickBot="1">
       <c r="B45" s="21"/>
       <c r="C45" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E45" s="125"/>
       <c r="F45" s="136"/>
@@ -3813,10 +3815,10 @@
     <row r="46" spans="2:11" ht="16" thickBot="1">
       <c r="B46" s="21"/>
       <c r="C46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E46" s="127"/>
       <c r="F46" s="136"/>
@@ -3831,10 +3833,10 @@
     <row r="47" spans="2:11" ht="16" thickBot="1">
       <c r="B47" s="21"/>
       <c r="C47" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D47" s="134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E47" s="126"/>
       <c r="F47" s="136"/>
@@ -3971,23 +3973,23 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
@@ -4064,7 +4066,7 @@
     <row r="7" spans="2:18" ht="16" thickBot="1">
       <c r="B7" s="75"/>
       <c r="C7" s="133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D7" s="128" t="s">
         <v>34</v>
@@ -4090,10 +4092,10 @@
     <row r="8" spans="2:18" ht="16" thickBot="1">
       <c r="B8" s="75"/>
       <c r="C8" s="123" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="80">
@@ -4119,10 +4121,10 @@
     <row r="9" spans="2:18" ht="16" thickBot="1">
       <c r="B9" s="75"/>
       <c r="C9" s="131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="129">
@@ -4173,7 +4175,7 @@
     <row r="12" spans="2:18" ht="16" thickBot="1">
       <c r="B12" s="75"/>
       <c r="C12" s="123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="78" t="s">
         <v>1</v>
@@ -4205,7 +4207,7 @@
     <row r="13" spans="2:18" ht="16" thickBot="1">
       <c r="B13" s="75"/>
       <c r="C13" s="123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>1</v>
@@ -4234,10 +4236,10 @@
     <row r="14" spans="2:18" ht="16" thickBot="1">
       <c r="B14" s="75"/>
       <c r="C14" s="123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="82">
@@ -4262,7 +4264,7 @@
       </c>
       <c r="Q14" s="67"/>
       <c r="R14" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -4277,7 +4279,7 @@
       <c r="P15" s="90"/>
       <c r="Q15" s="67"/>
       <c r="R15" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:18">
@@ -4298,7 +4300,7 @@
       <c r="P16" s="90"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -4344,10 +4346,10 @@
     <row r="19" spans="2:18" ht="16" thickBot="1">
       <c r="B19" s="75"/>
       <c r="C19" s="77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="80">
@@ -4376,7 +4378,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="80">
@@ -4397,16 +4399,16 @@
       <c r="P20" s="85"/>
       <c r="Q20" s="67"/>
       <c r="R20" s="142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="16" thickBot="1">
       <c r="B21" s="75"/>
       <c r="C21" s="138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="80">
@@ -4432,10 +4434,10 @@
     <row r="22" spans="2:18" ht="16" thickBot="1">
       <c r="B22" s="75"/>
       <c r="C22" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="92"/>
       <c r="F22" s="80">
@@ -4454,16 +4456,16 @@
       <c r="P22" s="67"/>
       <c r="Q22" s="67"/>
       <c r="R22" s="140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="16" thickBot="1">
       <c r="B23" s="75"/>
       <c r="C23" s="91" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="80">
@@ -4481,16 +4483,16 @@
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="16" thickBot="1">
       <c r="B24" s="75"/>
       <c r="C24" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="80">
@@ -4512,10 +4514,10 @@
     <row r="25" spans="2:18" ht="16" thickBot="1">
       <c r="B25" s="75"/>
       <c r="C25" s="91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="93"/>
       <c r="F25" s="80">
@@ -4537,10 +4539,10 @@
     <row r="26" spans="2:18" ht="16" thickBot="1">
       <c r="B26" s="75"/>
       <c r="C26" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="80">
@@ -4562,10 +4564,10 @@
     <row r="27" spans="2:18" ht="16" thickBot="1">
       <c r="B27" s="75"/>
       <c r="C27" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="93"/>
       <c r="F27" s="80">
@@ -4587,10 +4589,10 @@
     <row r="28" spans="2:18" ht="16" thickBot="1">
       <c r="B28" s="75"/>
       <c r="C28" s="140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="93"/>
       <c r="F28" s="80">
@@ -4716,13 +4718,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" s="106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" s="106" t="s">
         <v>8</v>
@@ -4745,10 +4747,10 @@
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
       <c r="E7" s="103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" s="104" t="s">
         <v>21</v>
@@ -4758,16 +4760,16 @@
       </c>
       <c r="I7" s="104"/>
       <c r="J7" s="104" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" s="109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="100"/>
       <c r="C8" s="110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="111"/>
       <c r="E8" s="103"/>
@@ -4795,7 +4797,7 @@
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F10" s="113" t="s">
         <v>22</v>
@@ -4804,20 +4806,20 @@
         <v>2000</v>
       </c>
       <c r="H10" s="114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="100"/>
       <c r="C11" s="117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="108"/>
@@ -4845,20 +4847,20 @@
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="103" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="104"/>
       <c r="J13" s="104" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="116"/>
     </row>
@@ -4879,7 +4881,7 @@
     <row r="15" spans="2:11">
       <c r="B15" s="100"/>
       <c r="C15" s="112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
@@ -4907,7 +4909,7 @@
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="103" t="s">
         <v>5</v>
@@ -4916,18 +4918,18 @@
         <v>2013</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="104"/>
       <c r="K17" s="116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="100"/>
       <c r="C18" s="112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -4941,7 +4943,7 @@
     <row r="19" spans="2:11">
       <c r="B19" s="100"/>
       <c r="C19" s="112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="103"/>
@@ -4969,7 +4971,7 @@
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
       <c r="E21" s="95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="108" t="s">
         <v>5</v>
@@ -4977,21 +4979,21 @@
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
       <c r="I21" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21" s="119"/>
       <c r="K21" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="100"/>
       <c r="C22" s="112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="108"/>
       <c r="G22" s="108"/>
@@ -5017,7 +5019,7 @@
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
       <c r="E24" s="103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="108" t="s">
         <v>5</v>
@@ -5025,21 +5027,21 @@
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
       <c r="I24" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="119"/>
       <c r="K24" s="116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="100"/>
       <c r="C25" s="112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
@@ -5105,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5151,7 +5153,7 @@
     <row r="6" spans="2:14">
       <c r="B6" s="145"/>
       <c r="C6" s="146" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="146"/>
       <c r="E6" s="146"/>
@@ -5168,7 +5170,7 @@
     <row r="7" spans="2:14">
       <c r="B7" s="145"/>
       <c r="C7" s="146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="146"/>
       <c r="E7" s="146"/>
@@ -5354,7 +5356,7 @@
         <v>2700</v>
       </c>
       <c r="E19" s="146" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="146"/>
       <c r="G19" s="146"/>
@@ -5373,7 +5375,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="146"/>
       <c r="G20" s="146"/>
@@ -5392,7 +5394,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F21" s="146"/>
       <c r="G21" s="146"/>
@@ -5437,7 +5439,7 @@
     <row r="24" spans="2:14">
       <c r="B24" s="145"/>
       <c r="C24" s="146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="146"/>
       <c r="E24" s="146"/>
@@ -5638,7 +5640,7 @@
         <v>4800000</v>
       </c>
       <c r="E37" s="146" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="146"/>
       <c r="G37" s="146"/>
@@ -5713,7 +5715,7 @@
     <row r="42" spans="2:14">
       <c r="B42" s="145"/>
       <c r="C42" s="146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="146"/>
       <c r="E42" s="146"/>
@@ -5730,7 +5732,7 @@
     <row r="43" spans="2:14">
       <c r="B43" s="145"/>
       <c r="C43" s="146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="146"/>
       <c r="E43" s="146"/>
@@ -5797,7 +5799,7 @@
         <v>2.5</v>
       </c>
       <c r="F47" s="146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G47" s="146"/>
       <c r="H47" s="146"/>
@@ -5891,7 +5893,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G53" s="146"/>
       <c r="H53" s="146"/>
@@ -6010,7 +6012,7 @@
     <row r="61" spans="2:14">
       <c r="B61" s="145"/>
       <c r="C61" s="146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="146"/>
       <c r="E61" s="146"/>
@@ -6027,7 +6029,7 @@
     <row r="62" spans="2:14">
       <c r="B62" s="145"/>
       <c r="C62" s="146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62" s="146"/>
       <c r="E62" s="146"/>
@@ -6154,7 +6156,7 @@
         <v>30</v>
       </c>
       <c r="F70" s="146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G70" s="146"/>
       <c r="H70" s="146"/>

--- a/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -34,8 +39,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -206,9 +214,6 @@
   </si>
   <si>
     <t>Maria Tsagkaraki</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>ccs_investment</t>
@@ -823,6 +828,10 @@
   <si>
     <t>energy_chp_supercritical_waste_mix.central_producer.ad</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -832,7 +841,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -952,11 +961,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1636,16 +1640,16 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1662,7 +1666,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1689,7 +1693,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1710,51 +1714,51 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1800,31 +1804,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2095,80 +2099,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2325,7 +2264,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
@@ -2400,7 +2339,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2835,36 +2774,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="51" customWidth="1"/>
     <col min="3" max="3" width="36" style="51" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="51"/>
+    <col min="4" max="16384" width="10.7109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="49" customFormat="1"/>
-    <row r="2" spans="2:3" s="49" customFormat="1" ht="20">
+    <row r="1" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" s="49" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="49" customFormat="1"/>
-    <row r="4" spans="2:3" s="49" customFormat="1">
+    <row r="3" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="49" customFormat="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
@@ -2872,7 +2811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="49" customFormat="1">
+    <row r="6" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
@@ -2880,18 +2819,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="49" customFormat="1"/>
-    <row r="8" spans="2:3" s="49" customFormat="1">
+    <row r="7" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="50"/>
     </row>
-    <row r="9" spans="2:3" s="49" customFormat="1">
+    <row r="9" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="47"/>
       <c r="C9" s="51"/>
     </row>
-    <row r="10" spans="2:3" s="49" customFormat="1">
+    <row r="10" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="47" t="s">
         <v>40</v>
       </c>
@@ -2899,29 +2838,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="49" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:3" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47"/>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="49" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:3" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
       <c r="C12" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="49" customFormat="1">
+    <row r="13" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="47"/>
       <c r="C13" s="51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="49" customFormat="1">
+    <row r="14" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="47"/>
       <c r="C14" s="51"/>
     </row>
-    <row r="15" spans="2:3" s="49" customFormat="1">
+    <row r="15" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
@@ -2929,43 +2868,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="49" customFormat="1">
+    <row r="16" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="47"/>
       <c r="C16" s="55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="49" customFormat="1">
+    <row r="17" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="47"/>
       <c r="C17" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="49" customFormat="1">
+    <row r="18" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="47"/>
       <c r="C18" s="57" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="49" customFormat="1">
+    <row r="19" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58"/>
       <c r="C19" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="49" customFormat="1">
+    <row r="20" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="58"/>
       <c r="C20" s="60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="49" customFormat="1">
+    <row r="21" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="58"/>
       <c r="C21" s="61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="49" customFormat="1">
+    <row r="22" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="58"/>
       <c r="C22" s="62" t="s">
         <v>52</v>
@@ -2974,76 +2913,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.125" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="17"/>
+    <col min="1" max="2" width="2.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="149" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C2" s="150"/>
       <c r="D2" s="150"/>
       <c r="E2" s="151"/>
       <c r="F2" s="43"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="152"/>
       <c r="C3" s="153"/>
       <c r="D3" s="153"/>
       <c r="E3" s="154"/>
       <c r="F3" s="43"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="152"/>
       <c r="C4" s="153"/>
       <c r="D4" s="153"/>
       <c r="E4" s="154"/>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="155"/>
       <c r="C5" s="156"/>
       <c r="D5" s="156"/>
       <c r="E5" s="157"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3054,7 +2988,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:11" s="9" customFormat="1">
+    <row r="8" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>16</v>
@@ -3075,7 +3009,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1">
+    <row r="9" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -3086,7 +3020,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3099,7 +3033,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="21"/>
       <c r="C11" s="29" t="s">
         <v>24</v>
@@ -3122,10 +3056,10 @@
       <c r="J11" s="22"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="21"/>
       <c r="C12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
@@ -3136,7 +3070,7 @@
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -3145,10 +3079,10 @@
       <c r="J12" s="22"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
@@ -3166,10 +3100,10 @@
       <c r="J13" s="22"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
@@ -3187,10 +3121,10 @@
       <c r="J14" s="22"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
       <c r="C15" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
@@ -3207,10 +3141,10 @@
       <c r="J15" s="22"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="21"/>
       <c r="C16" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -3227,10 +3161,10 @@
       <c r="J16" s="22"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="21"/>
       <c r="C17" s="64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
@@ -3247,10 +3181,10 @@
       <c r="J17" s="22"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21"/>
       <c r="C18" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
@@ -3267,10 +3201,10 @@
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="21"/>
       <c r="C19" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
@@ -3287,10 +3221,10 @@
       <c r="J19" s="22"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="21"/>
       <c r="C20" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
@@ -3307,10 +3241,10 @@
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>2</v>
@@ -3320,7 +3254,7 @@
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="70" t="s">
@@ -3329,10 +3263,10 @@
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="21"/>
       <c r="C22" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>2</v>
@@ -3342,7 +3276,7 @@
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="70" t="s">
@@ -3351,10 +3285,10 @@
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="21"/>
       <c r="C23" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>2</v>
@@ -3364,7 +3298,7 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="70" t="s">
@@ -3373,10 +3307,10 @@
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="21"/>
       <c r="C24" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>2</v>
@@ -3386,7 +3320,7 @@
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="70" t="s">
@@ -3395,10 +3329,10 @@
       <c r="J24" s="22"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>2</v>
@@ -3408,7 +3342,7 @@
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -3417,7 +3351,7 @@
       <c r="J25" s="22"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="C26" s="67"/>
       <c r="D26" s="37"/>
@@ -3429,7 +3363,7 @@
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="11" t="s">
         <v>31</v>
@@ -3443,13 +3377,13 @@
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="21"/>
       <c r="C28" s="64" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="41">
         <f>'Research data'!F19</f>
@@ -3461,25 +3395,25 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="41">
         <v>0</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25" t="s">
@@ -3488,20 +3422,20 @@
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
       <c r="C30" s="64" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="66">
         <v>0</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -3510,20 +3444,20 @@
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
       <c r="C31" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="66">
         <v>0</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="25" t="s">
@@ -3532,13 +3466,13 @@
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21"/>
       <c r="C32" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="66">
         <f>'Research data'!F22</f>
@@ -3546,51 +3480,51 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="16" thickBot="1">
+    <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="21"/>
       <c r="C33" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="41">
         <v>0</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="16" thickBot="1">
+    <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
       <c r="C34" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="41">
         <v>0</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="25" t="s">
@@ -3599,20 +3533,20 @@
       <c r="J34" s="22"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="2:11" ht="16" thickBot="1">
+    <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="21"/>
       <c r="C35" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E35" s="68">
         <v>0.1</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="25" t="s">
@@ -3621,13 +3555,13 @@
       <c r="J35" s="22"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="2:11" ht="16" thickBot="1">
+    <row r="36" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="21"/>
       <c r="C36" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="63">
         <v>1</v>
@@ -3641,7 +3575,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
@@ -3653,7 +3587,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="2:11" ht="16" thickBot="1">
+    <row r="38" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
       <c r="C38" s="11" t="s">
         <v>4</v>
@@ -3667,10 +3601,10 @@
       <c r="J38" s="22"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="2:11" ht="16" thickBot="1">
+    <row r="39" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="21"/>
       <c r="C39" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>1</v>
@@ -3681,7 +3615,7 @@
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="87" t="s">
@@ -3690,7 +3624,7 @@
       <c r="J39" s="22"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="2:11" ht="16" thickBot="1">
+    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="21"/>
       <c r="C40" s="65" t="s">
         <v>23</v>
@@ -3708,18 +3642,18 @@
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="2:11" ht="16" thickBot="1">
+    <row r="41" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21"/>
       <c r="C41" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E41" s="63">
         <f>'Research data'!F14</f>
@@ -3727,16 +3661,16 @@
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="2:11" ht="16" thickBot="1">
+    <row r="42" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="21"/>
       <c r="C42" s="34" t="s">
         <v>28</v>
@@ -3749,7 +3683,7 @@
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="25" t="s">
@@ -3758,13 +3692,13 @@
       <c r="J42" s="22"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="2:11" ht="16" thickBot="1">
+    <row r="43" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="21"/>
       <c r="C43" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="124"/>
       <c r="F43" s="136"/>
@@ -3776,13 +3710,13 @@
       <c r="J43" s="22"/>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="2:11" ht="16" thickBot="1">
+    <row r="44" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="21"/>
       <c r="C44" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E44" s="127"/>
       <c r="F44" s="136"/>
@@ -3794,13 +3728,13 @@
       <c r="J44" s="22"/>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="2:11" ht="16" thickBot="1">
+    <row r="45" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="21"/>
       <c r="C45" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="125"/>
       <c r="F45" s="136"/>
@@ -3812,13 +3746,13 @@
       <c r="J45" s="22"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="2:11" ht="16" thickBot="1">
+    <row r="46" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="21"/>
       <c r="C46" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E46" s="127"/>
       <c r="F46" s="136"/>
@@ -3830,13 +3764,13 @@
       <c r="J46" s="22"/>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="2:11" ht="16" thickBot="1">
+    <row r="47" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="21"/>
       <c r="C47" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="126"/>
       <c r="F47" s="136"/>
@@ -3848,7 +3782,7 @@
       <c r="J47" s="22"/>
       <c r="K47" s="14"/>
     </row>
-    <row r="48" spans="2:11" ht="16" thickBot="1">
+    <row r="48" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
@@ -3866,43 +3800,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3917,30 +3814,30 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.125" style="81" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="81" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="81" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="81" customWidth="1"/>
-    <col min="7" max="7" width="2.125" style="81" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="81" customWidth="1"/>
-    <col min="9" max="9" width="2.125" style="81" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="81" customWidth="1"/>
-    <col min="11" max="11" width="3.25" style="81" customWidth="1"/>
+    <col min="1" max="2" width="2.140625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="81" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="81" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="81" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="81" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="81" customWidth="1"/>
     <col min="12" max="12" width="9" style="81" customWidth="1"/>
-    <col min="13" max="13" width="2.125" style="81" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="81" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="81" customWidth="1"/>
-    <col min="16" max="16" width="7.625" style="81" customWidth="1"/>
-    <col min="17" max="17" width="2.125" style="81" customWidth="1"/>
-    <col min="18" max="18" width="70.875" style="81" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="81"/>
+    <col min="13" max="13" width="2.140625" style="81" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="81" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="81" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" style="81" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="81" customWidth="1"/>
+    <col min="18" max="18" width="70.85546875" style="81" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="81"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3959,7 +3856,7 @@
       <c r="Q2" s="74"/>
       <c r="R2" s="74"/>
     </row>
-    <row r="3" spans="2:18" s="9" customFormat="1">
+    <row r="3" spans="2:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -3973,30 +3870,30 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="89"/>
       <c r="D4" s="44"/>
@@ -4015,7 +3912,7 @@
       <c r="Q4" s="67"/>
       <c r="R4" s="67"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="75"/>
       <c r="C5" s="11" t="s">
         <v>30</v>
@@ -4035,7 +3932,7 @@
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="75"/>
       <c r="C6" s="86" t="s">
         <v>13</v>
@@ -4063,10 +3960,10 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="84"/>
     </row>
-    <row r="7" spans="2:18" ht="16" thickBot="1">
+    <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="75"/>
       <c r="C7" s="133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="128" t="s">
         <v>34</v>
@@ -4089,13 +3986,13 @@
       <c r="Q7" s="67"/>
       <c r="R7" s="84"/>
     </row>
-    <row r="8" spans="2:18" ht="16" thickBot="1">
+    <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="75"/>
       <c r="C8" s="123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="80">
@@ -4118,13 +4015,13 @@
       <c r="Q8" s="67"/>
       <c r="R8" s="135"/>
     </row>
-    <row r="9" spans="2:18" ht="16" thickBot="1">
+    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
       <c r="C9" s="131" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="67"/>
       <c r="F9" s="129">
@@ -4147,11 +4044,11 @@
       <c r="Q9" s="67"/>
       <c r="R9" s="64"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="75"/>
       <c r="R10" s="135"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="75"/>
       <c r="C11" s="11" t="s">
         <v>4</v>
@@ -4172,10 +4069,10 @@
       <c r="Q11" s="67"/>
       <c r="R11" s="64"/>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="75"/>
       <c r="C12" s="123" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="78" t="s">
         <v>1</v>
@@ -4204,10 +4101,10 @@
       <c r="Q12" s="67"/>
       <c r="R12" s="83"/>
     </row>
-    <row r="13" spans="2:18" ht="16" thickBot="1">
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="75"/>
       <c r="C13" s="123" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="78" t="s">
         <v>1</v>
@@ -4233,13 +4130,13 @@
       <c r="Q13" s="67"/>
       <c r="R13" s="83"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75"/>
       <c r="C14" s="123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="79"/>
       <c r="F14" s="82">
@@ -4264,10 +4161,10 @@
       </c>
       <c r="Q14" s="67"/>
       <c r="R14" s="83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="75"/>
       <c r="I15" s="67"/>
       <c r="J15" s="90"/>
@@ -4279,10 +4176,10 @@
       <c r="P15" s="90"/>
       <c r="Q15" s="67"/>
       <c r="R15" s="84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="75"/>
       <c r="C16" s="130"/>
       <c r="D16" s="79"/>
@@ -4300,10 +4197,10 @@
       <c r="P16" s="90"/>
       <c r="Q16" s="67"/>
       <c r="R16" s="84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="75"/>
       <c r="C17" s="130"/>
       <c r="D17" s="79"/>
@@ -4322,7 +4219,7 @@
       <c r="Q17" s="67"/>
       <c r="R17" s="84"/>
     </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="75"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
@@ -4343,13 +4240,13 @@
       <c r="Q18" s="67"/>
       <c r="R18" s="64"/>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="75"/>
       <c r="C19" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="80">
@@ -4372,13 +4269,13 @@
       <c r="Q19" s="67"/>
       <c r="R19" s="64"/>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="75"/>
       <c r="C20" s="77" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="80">
@@ -4399,16 +4296,16 @@
       <c r="P20" s="85"/>
       <c r="Q20" s="67"/>
       <c r="R20" s="142" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="75"/>
       <c r="C21" s="138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="80">
@@ -4431,13 +4328,13 @@
       <c r="Q21" s="67"/>
       <c r="R21" s="64"/>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="75"/>
       <c r="C22" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="92"/>
       <c r="F22" s="80">
@@ -4456,16 +4353,16 @@
       <c r="P22" s="67"/>
       <c r="Q22" s="67"/>
       <c r="R22" s="140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="75"/>
       <c r="C23" s="91" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="80">
@@ -4483,16 +4380,16 @@
       <c r="P23" s="67"/>
       <c r="Q23" s="67"/>
       <c r="R23" s="84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="16" thickBot="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="75"/>
       <c r="C24" s="91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="80">
@@ -4511,13 +4408,13 @@
       <c r="Q24" s="67"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" ht="16" thickBot="1">
+    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="75"/>
       <c r="C25" s="91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="93"/>
       <c r="F25" s="80">
@@ -4536,13 +4433,13 @@
       <c r="Q25" s="67"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" ht="16" thickBot="1">
+    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="75"/>
       <c r="C26" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E26" s="93"/>
       <c r="F26" s="80">
@@ -4561,13 +4458,13 @@
       <c r="Q26" s="67"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" ht="16" thickBot="1">
+    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="75"/>
       <c r="C27" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="93"/>
       <c r="F27" s="80">
@@ -4586,13 +4483,13 @@
       <c r="Q27" s="67"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" ht="16" thickBot="1">
+    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="75"/>
       <c r="C28" s="140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28" s="93"/>
       <c r="F28" s="80">
@@ -4630,11 +4527,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4649,22 +4541,22 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="95" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="95" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="95" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="95" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="95" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="95" customWidth="1"/>
-    <col min="10" max="10" width="32.75" style="96" customWidth="1"/>
-    <col min="11" max="11" width="105.5" style="95" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="95"/>
+    <col min="1" max="1" width="10.140625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="95" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="95" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="95" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="95" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="95" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="95" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="96" customWidth="1"/>
+    <col min="11" max="11" width="105.42578125" style="95" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -4676,7 +4568,7 @@
       <c r="J2" s="99"/>
       <c r="K2" s="98"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="100"/>
       <c r="C3" s="101" t="s">
         <v>12</v>
@@ -4690,7 +4582,7 @@
       <c r="J3" s="102"/>
       <c r="K3" s="103"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
@@ -4702,7 +4594,7 @@
       <c r="J4" s="104"/>
       <c r="K4" s="103"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="105"/>
       <c r="C5" s="106" t="s">
         <v>14</v>
@@ -4718,19 +4610,19 @@
         <v>15</v>
       </c>
       <c r="H5" s="106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I5" s="106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J5" s="107" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K5" s="106" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="100"/>
       <c r="C6" s="101"/>
       <c r="D6" s="101"/>
@@ -4742,15 +4634,15 @@
       <c r="J6" s="102"/>
       <c r="K6" s="101"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="100"/>
       <c r="C7" s="108"/>
       <c r="D7" s="108"/>
       <c r="E7" s="103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F7" s="103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="104" t="s">
         <v>21</v>
@@ -4760,16 +4652,16 @@
       </c>
       <c r="I7" s="104"/>
       <c r="J7" s="104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="100"/>
       <c r="C8" s="110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="111"/>
       <c r="E8" s="103"/>
@@ -4780,7 +4672,7 @@
       <c r="J8" s="104"/>
       <c r="K8" s="103"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="100"/>
       <c r="C9" s="112"/>
       <c r="D9" s="108"/>
@@ -4792,12 +4684,12 @@
       <c r="J9" s="104"/>
       <c r="K9" s="103"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="100"/>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="113" t="s">
         <v>22</v>
@@ -4806,20 +4698,20 @@
         <v>2000</v>
       </c>
       <c r="H10" s="114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="115"/>
       <c r="J10" s="114" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="100"/>
       <c r="C11" s="117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="118"/>
       <c r="E11" s="108"/>
@@ -4830,7 +4722,7 @@
       <c r="J11" s="114"/>
       <c r="K11" s="108"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="100"/>
       <c r="C12" s="110"/>
       <c r="D12" s="111"/>
@@ -4842,29 +4734,29 @@
       <c r="J12" s="114"/>
       <c r="K12" s="108"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="100"/>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="103" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="104"/>
       <c r="J13" s="104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K13" s="116"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="100"/>
       <c r="C14" s="112" t="s">
         <v>20</v>
@@ -4878,10 +4770,10 @@
       <c r="J14" s="104"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="100"/>
       <c r="C15" s="112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="108"/>
       <c r="E15" s="108"/>
@@ -4892,7 +4784,7 @@
       <c r="J15" s="104"/>
       <c r="K15" s="108"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="100"/>
       <c r="C16" s="112"/>
       <c r="D16" s="108"/>
@@ -4904,12 +4796,12 @@
       <c r="J16" s="104"/>
       <c r="K16" s="108"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="108"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="103" t="s">
         <v>5</v>
@@ -4918,18 +4810,18 @@
         <v>2013</v>
       </c>
       <c r="H17" s="104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I17" s="104"/>
       <c r="J17" s="104"/>
       <c r="K17" s="116" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="100"/>
       <c r="C18" s="112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="108"/>
       <c r="E18" s="108"/>
@@ -4940,10 +4832,10 @@
       <c r="J18" s="104"/>
       <c r="K18" s="108"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="100"/>
       <c r="C19" s="112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" s="108"/>
       <c r="E19" s="103"/>
@@ -4954,7 +4846,7 @@
       <c r="J19" s="119"/>
       <c r="K19" s="108"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="108"/>
       <c r="D20" s="108"/>
@@ -4966,12 +4858,12 @@
       <c r="J20" s="119"/>
       <c r="K20" s="108"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="100"/>
       <c r="C21" s="108"/>
       <c r="D21" s="108"/>
       <c r="E21" s="95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="108" t="s">
         <v>5</v>
@@ -4979,21 +4871,21 @@
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
       <c r="I21" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="119"/>
       <c r="K21" s="116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="100"/>
       <c r="C22" s="112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" s="108"/>
       <c r="E22" s="103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22" s="108"/>
       <c r="G22" s="108"/>
@@ -5002,7 +4894,7 @@
       <c r="J22" s="119"/>
       <c r="K22" s="108"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="100"/>
       <c r="C23" s="112"/>
       <c r="D23" s="108"/>
@@ -5014,12 +4906,12 @@
       <c r="J23" s="119"/>
       <c r="K23" s="108"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="100"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
       <c r="E24" s="103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F24" s="108" t="s">
         <v>5</v>
@@ -5027,21 +4919,21 @@
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
       <c r="I24" s="108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" s="119"/>
       <c r="K24" s="116" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="100"/>
       <c r="C25" s="112" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25" s="108"/>
       <c r="E25" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F25" s="108"/>
       <c r="G25" s="108"/>
@@ -5062,11 +4954,6 @@
   <ignoredErrors>
     <ignoredError sqref="G13:H13 G7:H7 H17 H10" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5078,15 +4965,15 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="141" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="141" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="141"/>
+    <col min="1" max="1" width="6.28515625" style="141" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="141" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" thickBot="1"/>
-    <row r="2" spans="2:14">
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="143"/>
       <c r="C2" s="144"/>
       <c r="D2" s="144"/>
@@ -5101,13 +4988,13 @@
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
     </row>
-    <row r="3" spans="2:14" s="9" customFormat="1">
+    <row r="3" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="147"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5120,7 +5007,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="145"/>
       <c r="C4" s="146"/>
       <c r="D4" s="146"/>
@@ -5135,7 +5022,7 @@
       <c r="M4" s="146"/>
       <c r="N4" s="146"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="145"/>
       <c r="C5" s="146"/>
       <c r="D5" s="146"/>
@@ -5150,10 +5037,10 @@
       <c r="M5" s="146"/>
       <c r="N5" s="146"/>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="145"/>
       <c r="C6" s="146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="146"/>
       <c r="E6" s="146"/>
@@ -5167,10 +5054,10 @@
       <c r="M6" s="146"/>
       <c r="N6" s="146"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="145"/>
       <c r="C7" s="146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="146"/>
       <c r="E7" s="146"/>
@@ -5184,7 +5071,7 @@
       <c r="M7" s="146"/>
       <c r="N7" s="146"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
       <c r="D8" s="146"/>
@@ -5199,7 +5086,7 @@
       <c r="M8" s="146"/>
       <c r="N8" s="146"/>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="145"/>
       <c r="C9" s="146"/>
       <c r="D9" s="146"/>
@@ -5214,7 +5101,7 @@
       <c r="M9" s="146"/>
       <c r="N9" s="146"/>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="145"/>
       <c r="C10" s="146"/>
       <c r="D10" s="146"/>
@@ -5229,7 +5116,7 @@
       <c r="M10" s="146"/>
       <c r="N10" s="146"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="145"/>
       <c r="C11" s="146"/>
       <c r="D11" s="146"/>
@@ -5244,7 +5131,7 @@
       <c r="M11" s="146"/>
       <c r="N11" s="146"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="145"/>
       <c r="C12" s="146"/>
       <c r="D12" s="146"/>
@@ -5259,7 +5146,7 @@
       <c r="M12" s="146"/>
       <c r="N12" s="146"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="145"/>
       <c r="C13" s="146"/>
       <c r="D13" s="146"/>
@@ -5274,7 +5161,7 @@
       <c r="M13" s="146"/>
       <c r="N13" s="146"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="145"/>
       <c r="C14" s="146"/>
       <c r="D14" s="146"/>
@@ -5289,7 +5176,7 @@
       <c r="M14" s="146"/>
       <c r="N14" s="146"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="145"/>
       <c r="C15" s="146"/>
       <c r="D15" s="146"/>
@@ -5304,7 +5191,7 @@
       <c r="M15" s="146"/>
       <c r="N15" s="146"/>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="145"/>
       <c r="C16" s="146"/>
       <c r="D16" s="146"/>
@@ -5319,7 +5206,7 @@
       <c r="M16" s="146"/>
       <c r="N16" s="146"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="145"/>
       <c r="C17" s="146"/>
       <c r="D17" s="146"/>
@@ -5334,7 +5221,7 @@
       <c r="M17" s="146"/>
       <c r="N17" s="146"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="145"/>
       <c r="C18" s="146"/>
       <c r="D18" s="146"/>
@@ -5349,14 +5236,14 @@
       <c r="M18" s="146"/>
       <c r="N18" s="146"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="145"/>
       <c r="C19" s="146"/>
       <c r="D19" s="146">
         <v>2700</v>
       </c>
       <c r="E19" s="146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F19" s="146"/>
       <c r="G19" s="146"/>
@@ -5368,14 +5255,14 @@
       <c r="M19" s="146"/>
       <c r="N19" s="146"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="145"/>
       <c r="C20" s="146"/>
       <c r="D20" s="146">
         <v>27</v>
       </c>
       <c r="E20" s="146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="146"/>
       <c r="G20" s="146"/>
@@ -5387,14 +5274,14 @@
       <c r="M20" s="146"/>
       <c r="N20" s="146"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="145"/>
       <c r="C21" s="146"/>
       <c r="D21" s="146">
         <v>15</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="146"/>
       <c r="G21" s="146"/>
@@ -5406,7 +5293,7 @@
       <c r="M21" s="146"/>
       <c r="N21" s="146"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="145"/>
       <c r="C22" s="146"/>
       <c r="D22" s="146"/>
@@ -5421,7 +5308,7 @@
       <c r="M22" s="146"/>
       <c r="N22" s="146"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="145"/>
       <c r="C23" s="146"/>
       <c r="D23" s="146"/>
@@ -5436,10 +5323,10 @@
       <c r="M23" s="146"/>
       <c r="N23" s="146"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="145"/>
       <c r="C24" s="146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="146"/>
       <c r="E24" s="146"/>
@@ -5453,7 +5340,7 @@
       <c r="M24" s="146"/>
       <c r="N24" s="146"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="145"/>
       <c r="C25" s="146"/>
       <c r="D25" s="146"/>
@@ -5468,7 +5355,7 @@
       <c r="M25" s="146"/>
       <c r="N25" s="146"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="145"/>
       <c r="C26" s="146"/>
       <c r="D26" s="146"/>
@@ -5483,7 +5370,7 @@
       <c r="M26" s="146"/>
       <c r="N26" s="146"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="145"/>
       <c r="C27" s="146"/>
       <c r="D27" s="146"/>
@@ -5498,7 +5385,7 @@
       <c r="M27" s="146"/>
       <c r="N27" s="146"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="145"/>
       <c r="C28" s="146"/>
       <c r="D28" s="146"/>
@@ -5513,7 +5400,7 @@
       <c r="M28" s="146"/>
       <c r="N28" s="146"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="145"/>
       <c r="C29" s="146"/>
       <c r="D29" s="146"/>
@@ -5528,7 +5415,7 @@
       <c r="M29" s="146"/>
       <c r="N29" s="146"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="145"/>
       <c r="C30" s="146"/>
       <c r="D30" s="146"/>
@@ -5543,7 +5430,7 @@
       <c r="M30" s="146"/>
       <c r="N30" s="146"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="145"/>
       <c r="C31" s="146"/>
       <c r="D31" s="146"/>
@@ -5558,7 +5445,7 @@
       <c r="M31" s="146"/>
       <c r="N31" s="146"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="145"/>
       <c r="C32" s="146"/>
       <c r="D32" s="146"/>
@@ -5573,7 +5460,7 @@
       <c r="M32" s="146"/>
       <c r="N32" s="146"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="145"/>
       <c r="C33" s="146"/>
       <c r="D33" s="146"/>
@@ -5588,7 +5475,7 @@
       <c r="M33" s="146"/>
       <c r="N33" s="146"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="145"/>
       <c r="C34" s="146"/>
       <c r="D34" s="146"/>
@@ -5603,7 +5490,7 @@
       <c r="M34" s="146"/>
       <c r="N34" s="146"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="145"/>
       <c r="C35" s="146"/>
       <c r="D35" s="146"/>
@@ -5618,7 +5505,7 @@
       <c r="M35" s="146"/>
       <c r="N35" s="146"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="145"/>
       <c r="C36" s="146"/>
       <c r="D36" s="146"/>
@@ -5633,14 +5520,14 @@
       <c r="M36" s="146"/>
       <c r="N36" s="146"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="145"/>
       <c r="C37" s="146"/>
       <c r="D37" s="146">
         <v>4800000</v>
       </c>
       <c r="E37" s="146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="146"/>
       <c r="G37" s="146"/>
@@ -5652,7 +5539,7 @@
       <c r="M37" s="146"/>
       <c r="N37" s="146"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="145"/>
       <c r="C38" s="146"/>
       <c r="D38" s="146"/>
@@ -5667,7 +5554,7 @@
       <c r="M38" s="146"/>
       <c r="N38" s="146"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="145"/>
       <c r="C39" s="146"/>
       <c r="D39" s="146"/>
@@ -5682,7 +5569,7 @@
       <c r="M39" s="146"/>
       <c r="N39" s="146"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="145"/>
       <c r="C40" s="146"/>
       <c r="D40" s="146"/>
@@ -5697,7 +5584,7 @@
       <c r="M40" s="146"/>
       <c r="N40" s="146"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="145"/>
       <c r="C41" s="146"/>
       <c r="D41" s="146"/>
@@ -5712,10 +5599,10 @@
       <c r="M41" s="146"/>
       <c r="N41" s="146"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="145"/>
       <c r="C42" s="146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42" s="146"/>
       <c r="E42" s="146"/>
@@ -5729,10 +5616,10 @@
       <c r="M42" s="146"/>
       <c r="N42" s="146"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="145"/>
       <c r="C43" s="146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D43" s="146"/>
       <c r="E43" s="146"/>
@@ -5746,7 +5633,7 @@
       <c r="M43" s="146"/>
       <c r="N43" s="146"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="145"/>
       <c r="C44" s="146"/>
       <c r="D44" s="146"/>
@@ -5761,7 +5648,7 @@
       <c r="M44" s="146"/>
       <c r="N44" s="146"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="145"/>
       <c r="C45" s="146"/>
       <c r="D45" s="146"/>
@@ -5776,7 +5663,7 @@
       <c r="M45" s="146"/>
       <c r="N45" s="146"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="145"/>
       <c r="C46" s="146"/>
       <c r="D46" s="146"/>
@@ -5791,7 +5678,7 @@
       <c r="M46" s="146"/>
       <c r="N46" s="146"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="145"/>
       <c r="C47" s="146"/>
       <c r="D47" s="146"/>
@@ -5799,7 +5686,7 @@
         <v>2.5</v>
       </c>
       <c r="F47" s="146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G47" s="146"/>
       <c r="H47" s="146"/>
@@ -5810,7 +5697,7 @@
       <c r="M47" s="146"/>
       <c r="N47" s="146"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="145"/>
       <c r="C48" s="146"/>
       <c r="D48" s="146"/>
@@ -5825,7 +5712,7 @@
       <c r="M48" s="146"/>
       <c r="N48" s="146"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="145"/>
       <c r="C49" s="146"/>
       <c r="D49" s="146"/>
@@ -5840,7 +5727,7 @@
       <c r="M49" s="146"/>
       <c r="N49" s="146"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="145"/>
       <c r="C50" s="146"/>
       <c r="D50" s="146"/>
@@ -5855,7 +5742,7 @@
       <c r="M50" s="146"/>
       <c r="N50" s="146"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="145"/>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -5870,7 +5757,7 @@
       <c r="M51" s="146"/>
       <c r="N51" s="146"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="145"/>
       <c r="C52" s="146"/>
       <c r="D52" s="146"/>
@@ -5885,7 +5772,7 @@
       <c r="M52" s="146"/>
       <c r="N52" s="146"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="145"/>
       <c r="C53" s="146"/>
       <c r="D53" s="146"/>
@@ -5893,7 +5780,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G53" s="146"/>
       <c r="H53" s="146"/>
@@ -5904,7 +5791,7 @@
       <c r="M53" s="146"/>
       <c r="N53" s="146"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="145"/>
       <c r="C54" s="146"/>
       <c r="D54" s="146"/>
@@ -5919,7 +5806,7 @@
       <c r="M54" s="146"/>
       <c r="N54" s="146"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="145"/>
       <c r="C55" s="146"/>
       <c r="D55" s="146"/>
@@ -5934,7 +5821,7 @@
       <c r="M55" s="146"/>
       <c r="N55" s="146"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="145"/>
       <c r="C56" s="146"/>
       <c r="D56" s="146"/>
@@ -5949,7 +5836,7 @@
       <c r="M56" s="146"/>
       <c r="N56" s="146"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="145"/>
       <c r="C57" s="146"/>
       <c r="D57" s="146"/>
@@ -5964,7 +5851,7 @@
       <c r="M57" s="146"/>
       <c r="N57" s="146"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="145"/>
       <c r="C58" s="146"/>
       <c r="D58" s="146"/>
@@ -5979,7 +5866,7 @@
       <c r="M58" s="146"/>
       <c r="N58" s="146"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="145"/>
       <c r="C59" s="146"/>
       <c r="D59" s="146"/>
@@ -5994,7 +5881,7 @@
       <c r="M59" s="146"/>
       <c r="N59" s="146"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="145"/>
       <c r="C60" s="146"/>
       <c r="D60" s="146"/>
@@ -6009,10 +5896,10 @@
       <c r="M60" s="146"/>
       <c r="N60" s="146"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="145"/>
       <c r="C61" s="146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="146"/>
       <c r="E61" s="146"/>
@@ -6026,10 +5913,10 @@
       <c r="M61" s="146"/>
       <c r="N61" s="146"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="145"/>
       <c r="C62" s="146" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D62" s="146"/>
       <c r="E62" s="146"/>
@@ -6043,7 +5930,7 @@
       <c r="M62" s="146"/>
       <c r="N62" s="146"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="145"/>
       <c r="C63" s="146"/>
       <c r="D63" s="146"/>
@@ -6058,7 +5945,7 @@
       <c r="M63" s="146"/>
       <c r="N63" s="146"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="145"/>
       <c r="C64" s="146"/>
       <c r="D64" s="146"/>
@@ -6073,7 +5960,7 @@
       <c r="M64" s="146"/>
       <c r="N64" s="146"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="145"/>
       <c r="C65" s="146"/>
       <c r="D65" s="146"/>
@@ -6088,7 +5975,7 @@
       <c r="M65" s="146"/>
       <c r="N65" s="146"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="145"/>
       <c r="C66" s="146"/>
       <c r="D66" s="146"/>
@@ -6103,7 +5990,7 @@
       <c r="M66" s="146"/>
       <c r="N66" s="146"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="145"/>
       <c r="C67" s="146"/>
       <c r="D67" s="146"/>
@@ -6118,7 +6005,7 @@
       <c r="M67" s="146"/>
       <c r="N67" s="146"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="145"/>
       <c r="C68" s="146"/>
       <c r="D68" s="146"/>
@@ -6133,7 +6020,7 @@
       <c r="M68" s="146"/>
       <c r="N68" s="146"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="145"/>
       <c r="C69" s="146"/>
       <c r="D69" s="146"/>
@@ -6148,7 +6035,7 @@
       <c r="M69" s="146"/>
       <c r="N69" s="146"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="145"/>
       <c r="C70" s="146"/>
       <c r="D70" s="146"/>
@@ -6156,7 +6043,7 @@
         <v>30</v>
       </c>
       <c r="F70" s="146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G70" s="146"/>
       <c r="H70" s="146"/>
@@ -6167,7 +6054,7 @@
       <c r="M70" s="146"/>
       <c r="N70" s="146"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="145"/>
       <c r="C71" s="146"/>
       <c r="D71" s="146"/>
@@ -6182,7 +6069,7 @@
       <c r="M71" s="146"/>
       <c r="N71" s="146"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="145"/>
       <c r="C72" s="146"/>
       <c r="D72" s="146"/>
@@ -6197,7 +6084,7 @@
       <c r="M72" s="146"/>
       <c r="N72" s="146"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="145"/>
       <c r="C73" s="146"/>
       <c r="D73" s="146"/>
@@ -6212,7 +6099,7 @@
       <c r="M73" s="146"/>
       <c r="N73" s="146"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="145"/>
       <c r="C74" s="146"/>
       <c r="D74" s="146"/>
@@ -6227,7 +6114,7 @@
       <c r="M74" s="146"/>
       <c r="N74" s="146"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="145"/>
       <c r="C75" s="146"/>
       <c r="D75" s="146"/>
@@ -6242,7 +6129,7 @@
       <c r="M75" s="146"/>
       <c r="N75" s="146"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="145"/>
       <c r="C76" s="146"/>
       <c r="D76" s="146"/>
@@ -6257,7 +6144,7 @@
       <c r="M76" s="146"/>
       <c r="N76" s="146"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="145"/>
       <c r="C77" s="146"/>
       <c r="D77" s="146"/>
@@ -6272,7 +6159,7 @@
       <c r="M77" s="146"/>
       <c r="N77" s="146"/>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="145"/>
       <c r="C78" s="146"/>
       <c r="D78" s="146"/>
@@ -6287,7 +6174,7 @@
       <c r="M78" s="146"/>
       <c r="N78" s="146"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="145"/>
       <c r="C79" s="146"/>
       <c r="D79" s="146"/>
@@ -6305,10 +6192,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3CA40-8CE5-9045-AE03-C5B9C5EAC783}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -39,7 +40,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="159">
   <si>
     <t>Source</t>
   </si>
@@ -310,21 +311,6 @@
   </si>
   <si>
     <t>heat_output_capacity</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
   </si>
   <si>
     <r>
@@ -350,129 +336,6 @@
   </si>
   <si>
     <t>yes=1, no=0</t>
-  </si>
-  <si>
-    <r>
-      <t>Probability that two peaks fall in the same time in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>summer day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Probability that two peaks fal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the same time in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the summer evining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the same time in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the winter day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the same time in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the winter evining</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Energymatters</t>
@@ -836,12 +699,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1582,7 +1445,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1617,7 +1480,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1673,7 +1535,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2103,6 +1964,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2124,7 +1988,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2162,7 +2032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2200,7 +2076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2238,7 +2120,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2772,141 +2660,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="51" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="36" style="51" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="51"/>
+    <col min="1" max="1" width="2.1640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="36" style="50" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:3" s="49" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="2:3" s="48" customFormat="1"/>
+    <row r="2" spans="2:3" s="48" customFormat="1" ht="21">
+      <c r="B2" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46" t="s">
+    <row r="3" spans="2:3" s="48" customFormat="1"/>
+    <row r="4" spans="2:3" s="48" customFormat="1">
+      <c r="B4" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="48" customFormat="1">
       <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" s="48" customFormat="1">
       <c r="B6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="46" t="s">
+    <row r="7" spans="2:3" s="48" customFormat="1"/>
+    <row r="8" spans="2:3" s="48" customFormat="1">
+      <c r="B8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="50"/>
-    </row>
-    <row r="9" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="51"/>
-    </row>
-    <row r="10" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="C8" s="49"/>
+    </row>
+    <row r="9" spans="2:3" s="48" customFormat="1">
+      <c r="B9" s="46"/>
+      <c r="C9" s="50"/>
+    </row>
+    <row r="10" spans="2:3" s="48" customFormat="1">
+      <c r="B10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:3" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+    <row r="11" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:3" s="49" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="53" t="s">
+    <row r="12" spans="2:3" s="48" customFormat="1" ht="17" thickBot="1">
+      <c r="B12" s="46"/>
+      <c r="C12" s="52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
-      <c r="C13" s="51" t="s">
+    <row r="13" spans="2:3" s="48" customFormat="1">
+      <c r="B13" s="46"/>
+      <c r="C13" s="50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47"/>
-      <c r="C14" s="51"/>
-    </row>
-    <row r="15" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+    <row r="14" spans="2:3" s="48" customFormat="1">
+      <c r="B14" s="46"/>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="2:3" s="48" customFormat="1">
+      <c r="B15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="47"/>
-      <c r="C16" s="55" t="s">
+    <row r="16" spans="2:3" s="48" customFormat="1">
+      <c r="B16" s="46"/>
+      <c r="C16" s="54" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="47"/>
-      <c r="C17" s="56" t="s">
+    <row r="17" spans="2:3" s="48" customFormat="1">
+      <c r="B17" s="46"/>
+      <c r="C17" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="47"/>
-      <c r="C18" s="57" t="s">
+    <row r="18" spans="2:3" s="48" customFormat="1">
+      <c r="B18" s="46"/>
+      <c r="C18" s="56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
+    <row r="19" spans="2:3" s="48" customFormat="1">
+      <c r="B19" s="57"/>
+      <c r="C19" s="58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="58"/>
-      <c r="C20" s="60" t="s">
+    <row r="20" spans="2:3" s="48" customFormat="1">
+      <c r="B20" s="57"/>
+      <c r="C20" s="59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="58"/>
-      <c r="C21" s="61" t="s">
+    <row r="21" spans="2:3" s="48" customFormat="1">
+      <c r="B21" s="57"/>
+      <c r="C21" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="58"/>
-      <c r="C22" s="62" t="s">
+    <row r="22" spans="2:3" s="48" customFormat="1">
+      <c r="B22" s="57"/>
+      <c r="C22" s="61" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2917,67 +2805,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K48"/>
+  <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="43"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="16" customHeight="1">
+      <c r="B2" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="42"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="42"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="19"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2988,12 +2876,12 @@
       <c r="I7" s="5"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="9" customFormat="1">
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3009,7 +2897,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="9" customFormat="1">
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
       <c r="D9" s="10"/>
@@ -3020,7 +2908,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="9" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>30</v>
@@ -3033,15 +2921,15 @@
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="21"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <f>'Research data'!F6</f>
         <v>60</v>
       </c>
@@ -3056,21 +2944,21 @@
       <c r="J11" s="22"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="21"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <f>'Research data'!F7</f>
         <v>33.299999999999997</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="64" t="s">
-        <v>91</v>
+      <c r="G12" s="63" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -3079,270 +2967,253 @@
       <c r="J12" s="22"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="21"/>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>76</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="65">
         <f>'Research data'!F8/100</f>
         <v>0.27</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="64"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="21"/>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="65">
         <f>'Research data'!F9/100</f>
         <v>0.15</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="64"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="21"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <v>0.9</v>
       </c>
       <c r="F15" s="24"/>
-      <c r="G15" s="64"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="70" t="s">
+      <c r="I15" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="21"/>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>79</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="68">
         <v>1</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="64"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="70" t="s">
+      <c r="I16" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="21"/>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>80</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>0</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="64"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="70" t="s">
+      <c r="I17" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="21"/>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="68">
         <v>0</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="70" t="s">
+      <c r="I18" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="21"/>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>83</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="68">
         <v>0.1</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11">
       <c r="B20" s="21"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="68">
         <v>0.7</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="64"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="69" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11">
       <c r="B21" s="21"/>
-      <c r="C21" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="69">
-        <v>1</v>
-      </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="70" t="s">
-        <v>27</v>
-      </c>
+      <c r="C21" s="66"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="21"/>
-      <c r="C22" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="69">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="70" t="s">
-        <v>27</v>
-      </c>
+      <c r="C22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="36"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="21"/>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="40">
+        <f>'Research data'!F19</f>
+        <v>162000000</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="85" t="s">
         <v>88</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="69">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="70" t="s">
-        <v>27</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="21"/>
-      <c r="C24" s="64" t="s">
-        <v>89</v>
+      <c r="C24" s="63" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="63">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="64" t="s">
-        <v>96</v>
+      <c r="G24" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="H24" s="24"/>
-      <c r="I24" s="70" t="s">
+      <c r="I24" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="21"/>
-      <c r="C25" s="64" t="s">
-        <v>90</v>
+      <c r="C25" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="26">
-        <v>18.38</v>
+        <v>61</v>
+      </c>
+      <c r="E25" s="65">
+        <v>0</v>
       </c>
       <c r="F25" s="24"/>
-      <c r="G25" s="135" t="s">
-        <v>97</v>
+      <c r="G25" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -3351,69 +3222,87 @@
       <c r="J25" s="22"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="21"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="C26" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="65">
+        <v>0</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="21"/>
-      <c r="C27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="18"/>
+      <c r="C27" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="65">
+        <f>'Research data'!F22</f>
+        <v>4800000</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="21"/>
-      <c r="C28" s="64" t="s">
-        <v>25</v>
+      <c r="C28" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="41">
-        <f>'Research data'!F19</f>
-        <v>162000000</v>
+        <v>63</v>
+      </c>
+      <c r="E28" s="40">
+        <v>0</v>
       </c>
       <c r="F28" s="24"/>
-      <c r="G28" s="24" t="s">
-        <v>18</v>
+      <c r="G28" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="H28" s="24"/>
-      <c r="I28" s="87" t="s">
-        <v>98</v>
+      <c r="I28" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="64" t="s">
-        <v>54</v>
+      <c r="C29" s="63" t="s">
+        <v>58</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="41">
+        <v>63</v>
+      </c>
+      <c r="E29" s="40">
         <v>0</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="64" t="s">
-        <v>68</v>
+      <c r="G29" s="63" t="s">
+        <v>67</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="25" t="s">
@@ -3422,20 +3311,20 @@
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="21"/>
       <c r="C30" s="64" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="66">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="E30" s="67">
+        <v>0.1</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="64" t="s">
-        <v>69</v>
+      <c r="G30" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="25" t="s">
@@ -3444,247 +3333,226 @@
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="21"/>
-      <c r="C31" s="64" t="s">
-        <v>55</v>
+      <c r="C31" s="63" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="66">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="E31" s="62">
+        <v>1</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="64" t="s">
-        <v>64</v>
-      </c>
+      <c r="G31" s="63"/>
       <c r="H31" s="24"/>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="146" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32" s="21"/>
-      <c r="C32" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="66">
-        <f>'Research data'!F22</f>
-        <v>4800000</v>
-      </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" ht="17" thickBot="1">
       <c r="B33" s="21"/>
-      <c r="C33" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="25" t="s">
-        <v>118</v>
-      </c>
+      <c r="C33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="17" thickBot="1">
       <c r="B34" s="21"/>
       <c r="C34" s="64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="70">
+        <f>'Research data'!F13</f>
+        <v>3.5</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="64" t="s">
-        <v>67</v>
+      <c r="G34" s="63" t="s">
+        <v>70</v>
       </c>
       <c r="H34" s="24"/>
-      <c r="I34" s="25" t="s">
+      <c r="I34" s="85" t="s">
         <v>27</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" ht="17" thickBot="1">
       <c r="B35" s="21"/>
-      <c r="C35" s="65" t="s">
-        <v>60</v>
+      <c r="C35" s="64" t="s">
+        <v>23</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="68">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="E35" s="86">
+        <f>'Research data'!F12</f>
+        <v>30</v>
       </c>
       <c r="F35" s="24"/>
-      <c r="G35" s="24" t="s">
-        <v>71</v>
+      <c r="G35" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="H35" s="24"/>
-      <c r="I35" s="25" t="s">
-        <v>27</v>
+      <c r="I35" s="85" t="s">
+        <v>150</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" ht="17" thickBot="1">
       <c r="B36" s="21"/>
-      <c r="C36" s="64" t="s">
-        <v>82</v>
+      <c r="C36" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="63">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="E36" s="62">
+        <f>'Research data'!F14</f>
+        <v>0.1</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="64"/>
+      <c r="G36" s="63" t="s">
+        <v>75</v>
+      </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="148" t="s">
-        <v>27</v>
+      <c r="I36" s="85" t="s">
+        <v>115</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" ht="17" thickBot="1">
       <c r="B37" s="21"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="C37" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="41">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" ht="17" thickBot="1">
       <c r="B38" s="21"/>
-      <c r="C38" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="18"/>
+      <c r="C38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="122"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" ht="17" thickBot="1">
       <c r="B39" s="21"/>
-      <c r="C39" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="71">
-        <f>'Research data'!F13</f>
-        <v>3.5</v>
-      </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="64" t="s">
-        <v>70</v>
-      </c>
+      <c r="C39" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="125"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="87" t="s">
+      <c r="I39" s="25" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" ht="17" thickBot="1">
       <c r="B40" s="21"/>
-      <c r="C40" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="88">
-        <f>'Research data'!F12</f>
-        <v>30</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="35" t="s">
-        <v>29</v>
-      </c>
+      <c r="C40" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="123"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="87" t="s">
-        <v>160</v>
+      <c r="I40" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" ht="17" thickBot="1">
       <c r="B41" s="21"/>
-      <c r="C41" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="63">
-        <f>'Research data'!F14</f>
-        <v>0.1</v>
-      </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="64" t="s">
-        <v>75</v>
-      </c>
+      <c r="C41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="125"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="24"/>
-      <c r="I41" s="87" t="s">
-        <v>125</v>
+      <c r="I41" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:11" ht="17" thickBot="1">
       <c r="B42" s="21"/>
-      <c r="C42" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="42">
-        <v>0</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="64" t="s">
-        <v>72</v>
-      </c>
+      <c r="C42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="124"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="24"/>
       <c r="I42" s="25" t="s">
         <v>27</v>
@@ -3692,107 +3560,17 @@
       <c r="J42" s="22"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="124"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="22"/>
+    <row r="43" spans="2:11" ht="17" thickBot="1">
+      <c r="B43" s="23"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
-      <c r="C44" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="127"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="22"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
-      <c r="C45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="125"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
-      <c r="C46" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="127"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
-      <c r="C47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3804,8 +3582,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:R28"/>
@@ -3814,49 +3592,49 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.140625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="81" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="81" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="81" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="81" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="9" style="81" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="81" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="81" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="81" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="81" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="81" customWidth="1"/>
-    <col min="18" max="18" width="70.85546875" style="81" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="81"/>
+    <col min="1" max="2" width="2.1640625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="79" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="79" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="79" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="9" style="79" customWidth="1"/>
+    <col min="13" max="13" width="2.1640625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="79" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="79" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" style="79" customWidth="1"/>
+    <col min="18" max="18" width="70.83203125" style="79" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-    </row>
-    <row r="3" spans="2:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+    </row>
+    <row r="3" spans="2:18" s="9" customFormat="1">
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>35</v>
@@ -3870,643 +3648,643 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="75"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-    </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
+    <row r="4" spans="2:18">
+      <c r="B4" s="73"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+    </row>
+    <row r="5" spans="2:18" ht="17" thickBot="1">
+      <c r="B5" s="73"/>
       <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-    </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="86" t="s">
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+    </row>
+    <row r="6" spans="2:18" ht="17" thickBot="1">
+      <c r="B6" s="73"/>
+      <c r="C6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78">
         <f>ROUND(60,0)</f>
         <v>60</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="80">
+      <c r="G6" s="66"/>
+      <c r="H6" s="78">
         <v>60</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="84"/>
-    </row>
-    <row r="7" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="C7" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="128" t="s">
+      <c r="I6" s="66"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="82"/>
+    </row>
+    <row r="7" spans="2:18" ht="17" thickBot="1">
+      <c r="B7" s="73"/>
+      <c r="C7" s="131" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80">
+      <c r="E7" s="77"/>
+      <c r="F7" s="78">
         <f>ROUND(33.3,1)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="84"/>
-    </row>
-    <row r="8" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="80">
+      <c r="G7" s="66"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="82"/>
+    </row>
+    <row r="8" spans="2:18" ht="17" thickBot="1">
+      <c r="B8" s="73"/>
+      <c r="C8" s="121" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="78">
         <f>ROUND(27,1)</f>
         <v>27</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="80">
+      <c r="G8" s="66"/>
+      <c r="H8" s="78">
         <f>Notes!D20</f>
         <v>27</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="135"/>
-    </row>
-    <row r="9" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="75"/>
-      <c r="C9" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="132" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="129">
+      <c r="I8" s="66"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="133"/>
+    </row>
+    <row r="9" spans="2:18" ht="17" thickBot="1">
+      <c r="B9" s="73"/>
+      <c r="C9" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="66"/>
+      <c r="F9" s="127">
         <f>ROUND(15,1)</f>
         <v>15</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="87">
+      <c r="G9" s="66"/>
+      <c r="H9" s="85">
         <f>Notes!D21</f>
         <v>15</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="75"/>
-      <c r="R10" s="135"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="73"/>
+      <c r="R10" s="133"/>
+    </row>
+    <row r="11" spans="2:18" ht="17" thickBot="1">
+      <c r="B11" s="73"/>
       <c r="C11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="64"/>
-    </row>
-    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="75"/>
-      <c r="C12" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="78" t="s">
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="63"/>
+    </row>
+    <row r="12" spans="2:18" ht="17" thickBot="1">
+      <c r="B12" s="73"/>
+      <c r="C12" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="80">
+      <c r="E12" s="77"/>
+      <c r="F12" s="78">
         <f>ROUND(30,0)</f>
         <v>30</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="80">
+      <c r="G12" s="66"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="78">
         <f>Notes!E70</f>
         <v>30</v>
       </c>
-      <c r="K12" s="67"/>
-      <c r="L12" s="80">
+      <c r="K12" s="66"/>
+      <c r="L12" s="78">
         <f>Notes!$E$53</f>
         <v>20</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="83"/>
-    </row>
-    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="75"/>
-      <c r="C13" s="123" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="78" t="s">
+      <c r="M12" s="66"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="81"/>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1">
+      <c r="B13" s="73"/>
+      <c r="C13" s="121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="82">
+      <c r="E13" s="77"/>
+      <c r="F13" s="80">
         <f>ROUND(3.5,1)</f>
         <v>3.5</v>
       </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="82">
+      <c r="G13" s="66"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="80">
         <f>Notes!$E$47</f>
         <v>2.5</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="122"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="83"/>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="75"/>
-      <c r="C14" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="78" t="s">
+      <c r="M13" s="66"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="81"/>
+    </row>
+    <row r="14" spans="2:18" ht="17" thickBot="1">
+      <c r="B14" s="73"/>
+      <c r="C14" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="82">
+      <c r="E14" s="77"/>
+      <c r="F14" s="80">
         <f>ROUND(0.1,1)</f>
         <v>0.1</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="120">
+      <c r="G14" s="66"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="118">
         <f>248*501/1000000</f>
         <v>0.124248</v>
       </c>
-      <c r="O14" s="90"/>
-      <c r="P14" s="120">
+      <c r="O14" s="88"/>
+      <c r="P14" s="118">
         <f>401*281/1000000</f>
         <v>0.112681</v>
       </c>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="75"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="75"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="75"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="84"/>
-    </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="73"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="73"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="73"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="82"/>
+    </row>
+    <row r="18" spans="2:18" ht="17" thickBot="1">
+      <c r="B18" s="73"/>
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="64"/>
-    </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="77" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="63"/>
+    </row>
+    <row r="19" spans="2:18" ht="17" thickBot="1">
+      <c r="B19" s="73"/>
+      <c r="C19" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="80">
+      <c r="E19" s="74"/>
+      <c r="F19" s="78">
         <f>ROUND(F20*F6*1000,2)</f>
         <v>162000000</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="80">
+      <c r="G19" s="66"/>
+      <c r="H19" s="78">
         <f>H20*H6*1000</f>
         <v>162000000</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="64"/>
-    </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="77" t="s">
+      <c r="I19" s="66"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="63"/>
+    </row>
+    <row r="20" spans="2:18" ht="17" thickBot="1">
+      <c r="B20" s="73"/>
+      <c r="C20" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="137" t="s">
-        <v>142</v>
+      <c r="D20" s="135" t="s">
+        <v>132</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="80">
+      <c r="F20" s="78">
         <v>2700</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="87">
+      <c r="G20" s="66"/>
+      <c r="H20" s="85">
         <f>Notes!D19</f>
         <v>2700</v>
       </c>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="142" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="138" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="77" t="s">
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
+      <c r="B21" s="73"/>
+      <c r="C21" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="75" t="s">
         <v>61</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="80">
+      <c r="F21" s="78">
         <f>F22+F25</f>
         <v>4800000</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="87">
+      <c r="G21" s="66"/>
+      <c r="H21" s="85">
         <f>Notes!D37</f>
         <v>4800000</v>
       </c>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="64"/>
-    </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="77" t="s">
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="63"/>
+    </row>
+    <row r="22" spans="2:18" ht="17" thickBot="1">
+      <c r="B22" s="73"/>
+      <c r="C22" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="80">
+      <c r="E22" s="90"/>
+      <c r="F22" s="78">
         <f>ROUND(F23*F6*1000,2)</f>
         <v>4800000</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="C23" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="138" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" s="92"/>
-      <c r="F23" s="80">
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="138" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1">
+      <c r="B23" s="73"/>
+      <c r="C23" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="90"/>
+      <c r="F23" s="78">
         <v>80</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="C24" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="78" t="s">
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="82" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="17" thickBot="1">
+      <c r="B24" s="73"/>
+      <c r="C24" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="80">
+      <c r="E24" s="90"/>
+      <c r="F24" s="78">
         <v>0</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="75"/>
-      <c r="C25" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" s="78" t="s">
+    <row r="25" spans="2:18" ht="17" thickBot="1">
+      <c r="B25" s="73"/>
+      <c r="C25" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="93"/>
-      <c r="F25" s="80">
+      <c r="E25" s="91"/>
+      <c r="F25" s="78">
         <v>0</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="80">
+    <row r="26" spans="2:18" ht="17" thickBot="1">
+      <c r="B26" s="73"/>
+      <c r="C26" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="78">
         <v>0</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="C27" s="94" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="80">
+    <row r="27" spans="2:18" ht="17" thickBot="1">
+      <c r="B27" s="73"/>
+      <c r="C27" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="78">
         <v>6000</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="75"/>
-      <c r="C28" s="140" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="139" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="93"/>
-      <c r="F28" s="80">
+    <row r="28" spans="2:18" ht="17" thickBot="1">
+      <c r="B28" s="73"/>
+      <c r="C28" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="137" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="78">
         <f>F27*F6</f>
         <v>360000</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
       <c r="R28" s="6"/>
     </row>
   </sheetData>
@@ -4521,9 +4299,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="R23" r:id="rId1" location="issuecomment-18284357"/>
-    <hyperlink ref="R15:R16" r:id="rId2" display="Google maps"/>
-    <hyperlink ref="R14:R15" r:id="rId3" display="Google maps"/>
+    <hyperlink ref="R23" r:id="rId1" location="issuecomment-18284357" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="R15:R16" r:id="rId2" display="Google maps" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="R14:R15" r:id="rId3" display="Google maps" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4531,8 +4309,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K25"/>
@@ -4541,413 +4319,413 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="95" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="95" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="95" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="95" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="95" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="95" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="95" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="96" customWidth="1"/>
-    <col min="11" max="11" width="105.42578125" style="95" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="95"/>
+    <col min="1" max="1" width="10.1640625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="93" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="93" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="94" customWidth="1"/>
+    <col min="11" max="11" width="105.5" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="98"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="98"/>
+      <c r="C3" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="103"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="100"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="103"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
-      <c r="C5" s="106" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="98"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="101"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="104"/>
+      <c r="E5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="106" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="106" t="s">
+      <c r="H5" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="98"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="99"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="98"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="98"/>
+      <c r="C8" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="109"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="101"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="98"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="101"/>
+    </row>
+    <row r="10" spans="2:11" ht="32">
+      <c r="B10" s="98"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="112">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="113"/>
+      <c r="J10" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="98"/>
+      <c r="C11" s="115" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="116"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="106"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="98"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="106"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="98"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="114"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="98"/>
+      <c r="C14" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="114"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="98"/>
+      <c r="C15" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="106"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="98"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="106"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="98"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="102">
+        <v>2013</v>
+      </c>
+      <c r="H17" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="114" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="98"/>
+      <c r="C18" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="106"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="98"/>
+      <c r="C19" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="106"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="98"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="106"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="98"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="J21" s="117"/>
+      <c r="K21" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="107" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="106" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="100"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="101"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="100"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="103" t="s">
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="98"/>
+      <c r="C22" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="109" t="s">
+      <c r="D22" s="106"/>
+      <c r="E22" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="106"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="98"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="106"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="98"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="117"/>
+      <c r="K24" s="114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="100"/>
-      <c r="C8" s="110" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="103"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="100"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="103"/>
-    </row>
-    <row r="10" spans="2:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="100"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="114">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="115"/>
-      <c r="J10" s="114" t="s">
-        <v>165</v>
-      </c>
-      <c r="K10" s="116" t="s">
+    <row r="25" spans="2:11">
+      <c r="B25" s="98"/>
+      <c r="C25" s="110" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="100"/>
-      <c r="C11" s="117" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="108"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="100"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="108"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="100"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104" t="s">
-        <v>166</v>
-      </c>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="100"/>
-      <c r="C14" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="116"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="100"/>
-      <c r="C15" s="112" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="108"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="100"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="108"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="100"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="104">
-        <v>2013</v>
-      </c>
-      <c r="H17" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="100"/>
-      <c r="C18" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="108"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="100"/>
-      <c r="C19" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="108"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="100"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="108"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="100"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="119"/>
-      <c r="K21" s="116" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="100"/>
-      <c r="C22" s="112" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="108"/>
-      <c r="E22" s="103" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="108"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="100"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="108"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="100"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="J24" s="119"/>
-      <c r="K24" s="116" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="100"/>
-      <c r="C25" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="108"/>
-      <c r="E25" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="119"/>
-      <c r="K25" s="108"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="106"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1"/>
-    <hyperlink ref="K17" r:id="rId2" location="issuecomment-18284357"/>
-    <hyperlink ref="K21" r:id="rId3"/>
-    <hyperlink ref="K24" r:id="rId4"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K17" r:id="rId2" location="issuecomment-18284357" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="K21" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="K24" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4958,43 +4736,43 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="141" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="141" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="141"/>
+    <col min="1" max="1" width="6.33203125" style="139" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="139" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="139"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B2" s="143"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-    </row>
-    <row r="3" spans="2:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="147"/>
+    <row r="1" spans="2:14" ht="17" thickBot="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+    </row>
+    <row r="3" spans="2:14" s="9" customFormat="1">
+      <c r="B3" s="145"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -5007,1187 +4785,1187 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="145"/>
-      <c r="C6" s="146" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="145"/>
-      <c r="C7" s="146" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="145"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="146"/>
-      <c r="N13" s="146"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="145"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="145"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146">
+    <row r="4" spans="2:14">
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="143"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="143"/>
+      <c r="C6" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="143"/>
+      <c r="C7" s="144" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="143"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="143"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="143"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="143"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="143"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="143"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144">
         <v>2700</v>
       </c>
-      <c r="E19" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146">
+      <c r="E19" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="143"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144">
         <v>27</v>
       </c>
-      <c r="E20" s="146" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146">
+      <c r="E20" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="143"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144">
         <v>15</v>
       </c>
-      <c r="E21" s="146" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="145"/>
-      <c r="C24" s="146" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="145"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="145"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="146"/>
-      <c r="N34" s="146"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="146"/>
-      <c r="N36" s="146"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="145"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146">
+      <c r="E21" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="143"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="143"/>
+      <c r="C24" s="144" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="143"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="143"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="143"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="143"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="143"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="143"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="143"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="143"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="143"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="143"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144">
         <v>4800000</v>
       </c>
-      <c r="E37" s="146" t="s">
+      <c r="E37" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="146"/>
-      <c r="N37" s="146"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B38" s="145"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B42" s="145"/>
-      <c r="C42" s="146" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="146"/>
-      <c r="N42" s="146"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="145"/>
-      <c r="C43" s="146" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="146"/>
-      <c r="N43" s="146"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B44" s="145"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="146"/>
-      <c r="N44" s="146"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B45" s="145"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="146"/>
-      <c r="N45" s="146"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="145"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="146"/>
-      <c r="N46" s="146"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B47" s="145"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146">
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="143"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="144"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="143"/>
+      <c r="C42" s="144" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="144"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="143"/>
+      <c r="C43" s="144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144">
         <v>2.5</v>
       </c>
-      <c r="F47" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="146"/>
-      <c r="N48" s="146"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="146"/>
-      <c r="N49" s="146"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="145"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="146"/>
-      <c r="M50" s="146"/>
-      <c r="N50" s="146"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="145"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
-      <c r="N51" s="146"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="145"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="146"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146"/>
-      <c r="M52" s="146"/>
-      <c r="N52" s="146"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="145"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146">
+      <c r="F47" s="144" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="144"/>
+      <c r="N49" s="144"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="143"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144">
         <v>20</v>
       </c>
-      <c r="F53" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="146"/>
-      <c r="N53" s="146"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="145"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="145"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="146"/>
-      <c r="N55" s="146"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="145"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
-      <c r="M56" s="146"/>
-      <c r="N56" s="146"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="145"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
-      <c r="M57" s="146"/>
-      <c r="N57" s="146"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="146"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="146"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="146"/>
-      <c r="F59" s="146"/>
-      <c r="G59" s="146"/>
-      <c r="H59" s="146"/>
-      <c r="I59" s="146"/>
-      <c r="J59" s="146"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="146"/>
-      <c r="M59" s="146"/>
-      <c r="N59" s="146"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="145"/>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
-      <c r="N60" s="146"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B61" s="145"/>
-      <c r="C61" s="146" t="s">
-        <v>157</v>
-      </c>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
-      <c r="M61" s="146"/>
-      <c r="N61" s="146"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="145"/>
-      <c r="C62" s="146" t="s">
-        <v>158</v>
-      </c>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="146"/>
-      <c r="N62" s="146"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="145"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="146"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="145"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="146"/>
-      <c r="N64" s="146"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="145"/>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="146"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="146"/>
-      <c r="N65" s="146"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="145"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="146"/>
-      <c r="M66" s="146"/>
-      <c r="N66" s="146"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="145"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="146"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="146"/>
-      <c r="M67" s="146"/>
-      <c r="N67" s="146"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="145"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="146"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="146"/>
-      <c r="N68" s="146"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="145"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
-      <c r="M69" s="146"/>
-      <c r="N69" s="146"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="145"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="146">
+      <c r="F53" s="144" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="144"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="144"/>
+      <c r="K59" s="144"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="143"/>
+      <c r="C61" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="143"/>
+      <c r="C62" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="144"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="143"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="143"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="143"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
+      <c r="N65" s="144"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="143"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
+      <c r="M66" s="144"/>
+      <c r="N66" s="144"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="143"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="143"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="144"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="144"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="143"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
+      <c r="M69" s="144"/>
+      <c r="N69" s="144"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="143"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="144">
         <v>30</v>
       </c>
-      <c r="F70" s="146" t="s">
-        <v>159</v>
-      </c>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="146"/>
-      <c r="N70" s="146"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="145"/>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="146"/>
-      <c r="N71" s="146"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="145"/>
-      <c r="C72" s="146"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="146"/>
-      <c r="H72" s="146"/>
-      <c r="I72" s="146"/>
-      <c r="J72" s="146"/>
-      <c r="K72" s="146"/>
-      <c r="L72" s="146"/>
-      <c r="M72" s="146"/>
-      <c r="N72" s="146"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="145"/>
-      <c r="C73" s="146"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="146"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="146"/>
-      <c r="H73" s="146"/>
-      <c r="I73" s="146"/>
-      <c r="J73" s="146"/>
-      <c r="K73" s="146"/>
-      <c r="L73" s="146"/>
-      <c r="M73" s="146"/>
-      <c r="N73" s="146"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="145"/>
-      <c r="C74" s="146"/>
-      <c r="D74" s="146"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="146"/>
-      <c r="G74" s="146"/>
-      <c r="H74" s="146"/>
-      <c r="I74" s="146"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="146"/>
-      <c r="L74" s="146"/>
-      <c r="M74" s="146"/>
-      <c r="N74" s="146"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="145"/>
-      <c r="C75" s="146"/>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="146"/>
-      <c r="H75" s="146"/>
-      <c r="I75" s="146"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="146"/>
-      <c r="L75" s="146"/>
-      <c r="M75" s="146"/>
-      <c r="N75" s="146"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="145"/>
-      <c r="C76" s="146"/>
-      <c r="D76" s="146"/>
-      <c r="E76" s="146"/>
-      <c r="F76" s="146"/>
-      <c r="G76" s="146"/>
-      <c r="H76" s="146"/>
-      <c r="I76" s="146"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="146"/>
-      <c r="L76" s="146"/>
-      <c r="M76" s="146"/>
-      <c r="N76" s="146"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="145"/>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
-      <c r="E77" s="146"/>
-      <c r="F77" s="146"/>
-      <c r="G77" s="146"/>
-      <c r="H77" s="146"/>
-      <c r="I77" s="146"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="146"/>
-      <c r="L77" s="146"/>
-      <c r="M77" s="146"/>
-      <c r="N77" s="146"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="145"/>
-      <c r="C78" s="146"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="146"/>
-      <c r="H78" s="146"/>
-      <c r="I78" s="146"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="146"/>
-      <c r="L78" s="146"/>
-      <c r="M78" s="146"/>
-      <c r="N78" s="146"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="145"/>
-      <c r="C79" s="146"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="146"/>
-      <c r="G79" s="146"/>
-      <c r="H79" s="146"/>
-      <c r="I79" s="146"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="146"/>
-      <c r="L79" s="146"/>
-      <c r="M79" s="146"/>
-      <c r="N79" s="146"/>
+      <c r="F70" s="144" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="144"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
+    </row>
+    <row r="71" spans="2:14">
+      <c r="B71" s="143"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="144"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
+      <c r="M71" s="144"/>
+      <c r="N71" s="144"/>
+    </row>
+    <row r="72" spans="2:14">
+      <c r="B72" s="143"/>
+      <c r="C72" s="144"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="144"/>
+      <c r="G72" s="144"/>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
+      <c r="K72" s="144"/>
+      <c r="L72" s="144"/>
+      <c r="M72" s="144"/>
+      <c r="N72" s="144"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="143"/>
+      <c r="C73" s="144"/>
+      <c r="D73" s="144"/>
+      <c r="E73" s="144"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="144"/>
+      <c r="H73" s="144"/>
+      <c r="I73" s="144"/>
+      <c r="J73" s="144"/>
+      <c r="K73" s="144"/>
+      <c r="L73" s="144"/>
+      <c r="M73" s="144"/>
+      <c r="N73" s="144"/>
+    </row>
+    <row r="74" spans="2:14">
+      <c r="B74" s="143"/>
+      <c r="C74" s="144"/>
+      <c r="D74" s="144"/>
+      <c r="E74" s="144"/>
+      <c r="F74" s="144"/>
+      <c r="G74" s="144"/>
+      <c r="H74" s="144"/>
+      <c r="I74" s="144"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="144"/>
+      <c r="M74" s="144"/>
+      <c r="N74" s="144"/>
+    </row>
+    <row r="75" spans="2:14">
+      <c r="B75" s="143"/>
+      <c r="C75" s="144"/>
+      <c r="D75" s="144"/>
+      <c r="E75" s="144"/>
+      <c r="F75" s="144"/>
+      <c r="G75" s="144"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="144"/>
+      <c r="J75" s="144"/>
+      <c r="K75" s="144"/>
+      <c r="L75" s="144"/>
+      <c r="M75" s="144"/>
+      <c r="N75" s="144"/>
+    </row>
+    <row r="76" spans="2:14">
+      <c r="B76" s="143"/>
+      <c r="C76" s="144"/>
+      <c r="D76" s="144"/>
+      <c r="E76" s="144"/>
+      <c r="F76" s="144"/>
+      <c r="G76" s="144"/>
+      <c r="H76" s="144"/>
+      <c r="I76" s="144"/>
+      <c r="J76" s="144"/>
+      <c r="K76" s="144"/>
+      <c r="L76" s="144"/>
+      <c r="M76" s="144"/>
+      <c r="N76" s="144"/>
+    </row>
+    <row r="77" spans="2:14">
+      <c r="B77" s="143"/>
+      <c r="C77" s="144"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="144"/>
+      <c r="M77" s="144"/>
+      <c r="N77" s="144"/>
+    </row>
+    <row r="78" spans="2:14">
+      <c r="B78" s="143"/>
+      <c r="C78" s="144"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="144"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="144"/>
+      <c r="H78" s="144"/>
+      <c r="I78" s="144"/>
+      <c r="J78" s="144"/>
+      <c r="K78" s="144"/>
+      <c r="L78" s="144"/>
+      <c r="M78" s="144"/>
+      <c r="N78" s="144"/>
+    </row>
+    <row r="79" spans="2:14">
+      <c r="B79" s="143"/>
+      <c r="C79" s="144"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="144"/>
+      <c r="F79" s="144"/>
+      <c r="G79" s="144"/>
+      <c r="H79" s="144"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="144"/>
+      <c r="K79" s="144"/>
+      <c r="L79" s="144"/>
+      <c r="M79" s="144"/>
+      <c r="N79" s="144"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B3CA40-8CE5-9045-AE03-C5B9C5EAC783}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B523E6A-37D5-2349-90B5-2627D67D2D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -40,10 +40,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
   <si>
     <t>Source</t>
   </si>
@@ -695,6 +701,9 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -704,7 +713,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -861,6 +870,12 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1445,7 +1460,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1692,6 +1707,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="263">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2668,12 +2684,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="50" customWidth="1"/>
     <col min="3" max="3" width="36" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="50"/>
+    <col min="4" max="16384" width="10.7109375" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="48" customFormat="1"/>
@@ -2811,22 +2827,22 @@
   </sheetPr>
   <dimension ref="B1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="17"/>
+    <col min="1" max="2" width="2.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3320,15 +3336,15 @@
         <v>116</v>
       </c>
       <c r="E30" s="67">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24" t="s">
         <v>71</v>
       </c>
       <c r="H30" s="24"/>
-      <c r="I30" s="25" t="s">
-        <v>27</v>
+      <c r="I30" s="156" t="s">
+        <v>159</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
@@ -3592,26 +3608,26 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.1640625" style="79" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" style="79" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="79" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="79" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="79" customWidth="1"/>
-    <col min="7" max="7" width="2.1640625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="79" customWidth="1"/>
-    <col min="9" max="9" width="2.1640625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="79" customWidth="1"/>
+    <col min="1" max="2" width="2.140625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="79" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="79" customWidth="1"/>
+    <col min="7" max="7" width="2.140625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="79" customWidth="1"/>
     <col min="12" max="12" width="9" style="79" customWidth="1"/>
-    <col min="13" max="13" width="2.1640625" style="79" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="79" customWidth="1"/>
-    <col min="15" max="15" width="2.1640625" style="79" customWidth="1"/>
-    <col min="16" max="16" width="7.5" style="79" customWidth="1"/>
-    <col min="17" max="17" width="2.1640625" style="79" customWidth="1"/>
-    <col min="18" max="18" width="70.83203125" style="79" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="79"/>
+    <col min="13" max="13" width="2.140625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="79" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="79" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="79" customWidth="1"/>
+    <col min="18" max="18" width="70.85546875" style="79" customWidth="1"/>
+    <col min="19" max="16384" width="10.7109375" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4319,18 +4335,18 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="93" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="93" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="93" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="93" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="94" customWidth="1"/>
-    <col min="11" max="11" width="105.5" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="93"/>
+    <col min="1" max="1" width="10.140625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="93" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="93" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="94" customWidth="1"/>
+    <col min="11" max="11" width="105.42578125" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4462,7 +4478,7 @@
       <c r="J9" s="102"/>
       <c r="K9" s="101"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="34">
       <c r="B10" s="98"/>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
@@ -4739,15 +4755,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="139" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="139" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="139"/>
+    <col min="1" max="1" width="6.28515625" style="139" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="139" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="139"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>

--- a/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_chp_supercritical_waste_mix.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B523E6A-37D5-2349-90B5-2627D67D2D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FC87B-BE1E-B643-8537-8E18ADEE0782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -296,9 +298,6 @@
   </si>
   <si>
     <t>availability</t>
-  </si>
-  <si>
-    <t>capacity_credit</t>
   </si>
   <si>
     <t>forecasting_error</t>
@@ -437,21 +436,6 @@
     <t xml:space="preserve">        Fixed operating and maintenance costs </t>
   </si>
   <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Land use per unit</t>
   </si>
   <si>
@@ -468,9 +452,6 @@
   </si>
   <si>
     <t>Heat output capacity</t>
-  </si>
-  <si>
-    <t>hours</t>
   </si>
   <si>
     <r>
@@ -825,6 +806,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,18 +814,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -851,6 +836,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,17 +844,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -952,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1183,17 +1172,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1460,7 +1438,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1643,10 +1621,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1661,9 +1635,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1680,6 +1652,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1707,7 +1680,6 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="263">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2684,12 +2656,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="50" customWidth="1"/>
     <col min="3" max="3" width="36" style="50" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="50"/>
+    <col min="4" max="16384" width="10.6640625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" s="48" customFormat="1"/>
@@ -2704,7 +2676,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="2:3" s="48" customFormat="1">
@@ -2825,57 +2797,57 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="2" width="2.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="17" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
       <c r="D1" s="14"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="147" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="149"/>
+      <c r="B2" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="42"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="150"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="147"/>
       <c r="F4" s="42"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="154"/>
-      <c r="E5" s="155"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150"/>
       <c r="F5" s="42"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1">
@@ -2963,7 +2935,7 @@
     <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="21"/>
       <c r="C12" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>34</v>
@@ -2974,7 +2946,7 @@
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="25" t="s">
@@ -3054,7 +3026,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="63"/>
@@ -3088,13 +3060,13 @@
     <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="21"/>
       <c r="C18" s="63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="68">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="63"/>
@@ -3105,7 +3077,7 @@
       <c r="J18" s="22"/>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+    <row r="19" spans="2:11">
       <c r="B19" s="21"/>
       <c r="C19" s="63" t="s">
         <v>83</v>
@@ -3114,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="68">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="63"/>
@@ -3127,69 +3099,71 @@
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="21"/>
-      <c r="C20" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="69" t="s">
-        <v>27</v>
-      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="22"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" ht="17" thickBot="1">
       <c r="B21" s="21"/>
-      <c r="C21" s="66"/>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="D21" s="36"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="14"/>
       <c r="G21" s="37"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="22"/>
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="21"/>
-      <c r="C22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="18"/>
+      <c r="C22" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="40">
+        <f>'Research data'!F19</f>
+        <v>162000000</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="85" t="s">
+        <v>87</v>
+      </c>
       <c r="J22" s="22"/>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="21"/>
       <c r="C23" s="63" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="40">
-        <f>'Research data'!F19</f>
-        <v>162000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="24" t="s">
-        <v>18</v>
+      <c r="G23" s="63" t="s">
+        <v>68</v>
       </c>
       <c r="H23" s="24"/>
-      <c r="I23" s="85" t="s">
-        <v>88</v>
+      <c r="I23" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="14"/>
@@ -3197,17 +3171,17 @@
     <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="21"/>
       <c r="C24" s="63" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="65">
         <v>0</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="25" t="s">
@@ -3219,7 +3193,7 @@
     <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="21"/>
       <c r="C25" s="63" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>61</v>
@@ -3229,7 +3203,7 @@
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="63" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="25" t="s">
@@ -3241,21 +3215,22 @@
     <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="21"/>
       <c r="C26" s="63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="65">
-        <v>0</v>
+        <f>'Research data'!F22</f>
+        <v>4800000</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="25" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="14"/>
@@ -3263,22 +3238,21 @@
     <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="21"/>
       <c r="C27" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="65">
-        <f>'Research data'!F22</f>
-        <v>4800000</v>
+        <v>63</v>
+      </c>
+      <c r="E27" s="40">
+        <v>0</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="14"/>
@@ -3286,7 +3260,7 @@
     <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="21"/>
       <c r="C28" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>63</v>
@@ -3296,297 +3270,185 @@
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="63" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="25" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="21"/>
-      <c r="C29" s="63" t="s">
-        <v>58</v>
+      <c r="C29" s="64" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="40">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="E29" s="67">
+        <v>0.04</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="63" t="s">
-        <v>67</v>
+      <c r="G29" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="H29" s="24"/>
-      <c r="I29" s="25" t="s">
-        <v>27</v>
+      <c r="I29" s="141" t="s">
+        <v>152</v>
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="21"/>
-      <c r="C30" s="64" t="s">
-        <v>60</v>
+      <c r="C30" s="63" t="s">
+        <v>81</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="67">
-        <v>0.04</v>
+        <v>86</v>
+      </c>
+      <c r="E30" s="62">
+        <v>1</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="G30" s="63"/>
       <c r="H30" s="24"/>
-      <c r="I30" s="156" t="s">
-        <v>159</v>
+      <c r="I30" s="140" t="s">
+        <v>27</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:11">
       <c r="B31" s="21"/>
-      <c r="C31" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="62">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="146" t="s">
-        <v>27</v>
-      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="22"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="21"/>
-      <c r="C32" s="35"/>
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="36"/>
-      <c r="E32" s="27"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="22"/>
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1">
       <c r="B33" s="21"/>
-      <c r="C33" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="18"/>
+      <c r="C33" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="70">
+        <f>'Research data'!F13</f>
+        <v>3.5</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="85" t="s">
+        <v>27</v>
+      </c>
       <c r="J33" s="22"/>
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="2:11" ht="17" thickBot="1">
       <c r="B34" s="21"/>
       <c r="C34" s="64" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="70">
-        <f>'Research data'!F13</f>
-        <v>3.5</v>
+      <c r="E34" s="86">
+        <f>'Research data'!F12</f>
+        <v>30</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="63" t="s">
-        <v>70</v>
+      <c r="G34" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="85" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="2:11" ht="17" thickBot="1">
       <c r="B35" s="21"/>
-      <c r="C35" s="64" t="s">
-        <v>23</v>
+      <c r="C35" s="28" t="s">
+        <v>73</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="86">
-        <f>'Research data'!F12</f>
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="E35" s="62">
+        <f>'Research data'!F14</f>
+        <v>0.1</v>
       </c>
       <c r="F35" s="24"/>
-      <c r="G35" s="34" t="s">
-        <v>29</v>
+      <c r="G35" s="63" t="s">
+        <v>75</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="85" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="2:11" ht="17" thickBot="1">
       <c r="B36" s="21"/>
-      <c r="C36" s="28" t="s">
-        <v>73</v>
+      <c r="C36" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="62">
-        <f>'Research data'!F14</f>
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E36" s="41">
+        <v>0</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="63" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H36" s="24"/>
-      <c r="I36" s="85" t="s">
-        <v>115</v>
+      <c r="I36" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="J36" s="22"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="2:11" ht="17" thickBot="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="41">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="2:11" ht="17" thickBot="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="122"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="2:11" ht="17" thickBot="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="2:11" ht="17" thickBot="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="123"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="2:11" ht="17" thickBot="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="22"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" ht="17" thickBot="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" s="124"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="22"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="2:11" ht="17" thickBot="1">
-      <c r="B43" s="23"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3608,26 +3470,26 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="2.140625" style="79" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="79" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="79" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="79" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="79" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="79" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="79" customWidth="1"/>
+    <col min="1" max="2" width="2.1640625" style="79" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="3.5" style="79" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="79" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" style="79" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="79" customWidth="1"/>
+    <col min="9" max="9" width="2.1640625" style="79" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="79" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="79" customWidth="1"/>
     <col min="12" max="12" width="9" style="79" customWidth="1"/>
-    <col min="13" max="13" width="2.140625" style="79" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="79" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="79" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="79" customWidth="1"/>
-    <col min="17" max="17" width="2.140625" style="79" customWidth="1"/>
-    <col min="18" max="18" width="70.85546875" style="79" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="79"/>
+    <col min="13" max="13" width="2.1640625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="79" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="79" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="79" customWidth="1"/>
+    <col min="17" max="17" width="2.1640625" style="79" customWidth="1"/>
+    <col min="18" max="18" width="70.83203125" style="79" customWidth="1"/>
+    <col min="19" max="16384" width="10.6640625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -3664,23 +3526,23 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
@@ -3756,10 +3618,10 @@
     </row>
     <row r="7" spans="2:18" ht="17" thickBot="1">
       <c r="B7" s="73"/>
-      <c r="C7" s="131" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="126" t="s">
+      <c r="C7" s="127" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="122" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="77"/>
@@ -3783,10 +3645,10 @@
     <row r="8" spans="2:18" ht="17" thickBot="1">
       <c r="B8" s="73"/>
       <c r="C8" s="121" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="126" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="78">
@@ -3807,18 +3669,18 @@
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="66"/>
-      <c r="R8" s="133"/>
+      <c r="R8" s="128"/>
     </row>
     <row r="9" spans="2:18" ht="17" thickBot="1">
       <c r="B9" s="73"/>
-      <c r="C9" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>116</v>
+      <c r="C9" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="126" t="s">
+        <v>115</v>
       </c>
       <c r="E9" s="66"/>
-      <c r="F9" s="127">
+      <c r="F9" s="123">
         <f>ROUND(15,1)</f>
         <v>15</v>
       </c>
@@ -3840,7 +3702,7 @@
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="73"/>
-      <c r="R10" s="133"/>
+      <c r="R10" s="128"/>
     </row>
     <row r="11" spans="2:18" ht="17" thickBot="1">
       <c r="B11" s="73"/>
@@ -3866,7 +3728,7 @@
     <row r="12" spans="2:18" ht="17" thickBot="1">
       <c r="B12" s="73"/>
       <c r="C12" s="121" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>1</v>
@@ -3898,7 +3760,7 @@
     <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="73"/>
       <c r="C13" s="121" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>1</v>
@@ -3927,7 +3789,7 @@
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="73"/>
       <c r="C14" s="121" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>74</v>
@@ -3955,7 +3817,7 @@
       </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:18">
@@ -3970,12 +3832,12 @@
       <c r="P15" s="88"/>
       <c r="Q15" s="66"/>
       <c r="R15" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="73"/>
-      <c r="C16" s="128"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
       <c r="F16" s="88"/>
@@ -3991,12 +3853,12 @@
       <c r="P16" s="88"/>
       <c r="Q16" s="66"/>
       <c r="R16" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="73"/>
-      <c r="C17" s="128"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
       <c r="F17" s="88"/>
@@ -4037,7 +3899,7 @@
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="73"/>
       <c r="C19" s="75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="75" t="s">
         <v>61</v>
@@ -4068,8 +3930,8 @@
       <c r="C20" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>132</v>
+      <c r="D20" s="129" t="s">
+        <v>125</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="78">
@@ -4089,14 +3951,14 @@
       <c r="O20" s="83"/>
       <c r="P20" s="83"/>
       <c r="Q20" s="66"/>
-      <c r="R20" s="140" t="s">
-        <v>152</v>
+      <c r="R20" s="134" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="73"/>
-      <c r="C21" s="136" t="s">
-        <v>136</v>
+      <c r="C21" s="130" t="s">
+        <v>129</v>
       </c>
       <c r="D21" s="75" t="s">
         <v>61</v>
@@ -4125,7 +3987,7 @@
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="73"/>
       <c r="C22" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>62</v>
@@ -4146,17 +4008,17 @@
       <c r="O22" s="66"/>
       <c r="P22" s="66"/>
       <c r="Q22" s="66"/>
-      <c r="R22" s="138" t="s">
-        <v>131</v>
+      <c r="R22" s="132" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="73"/>
       <c r="C23" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="136" t="s">
-        <v>133</v>
+        <v>117</v>
+      </c>
+      <c r="D23" s="130" t="s">
+        <v>126</v>
       </c>
       <c r="E23" s="90"/>
       <c r="F23" s="78">
@@ -4174,13 +4036,13 @@
       <c r="P23" s="66"/>
       <c r="Q23" s="66"/>
       <c r="R23" s="82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="73"/>
       <c r="C24" s="89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>63</v>
@@ -4205,7 +4067,7 @@
     <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="73"/>
       <c r="C25" s="89" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D25" s="76" t="s">
         <v>62</v>
@@ -4230,10 +4092,10 @@
     <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="73"/>
       <c r="C26" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="135" t="s">
-        <v>134</v>
+        <v>98</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>127</v>
       </c>
       <c r="E26" s="91"/>
       <c r="F26" s="78">
@@ -4255,10 +4117,10 @@
     <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="73"/>
       <c r="C27" s="92" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="91"/>
       <c r="F27" s="78">
@@ -4279,11 +4141,11 @@
     </row>
     <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="73"/>
-      <c r="C28" s="138" t="s">
-        <v>138</v>
-      </c>
-      <c r="D28" s="137" t="s">
-        <v>135</v>
+      <c r="C28" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>128</v>
       </c>
       <c r="E28" s="91"/>
       <c r="F28" s="78">
@@ -4335,18 +4197,18 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="93" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="93" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="93" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="93" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="93" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" style="94" customWidth="1"/>
-    <col min="11" max="11" width="105.42578125" style="93" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="93"/>
+    <col min="1" max="1" width="10.1640625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="93" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="93" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="93" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="94" customWidth="1"/>
+    <col min="11" max="11" width="105.5" style="93" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4404,13 +4266,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="104" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J5" s="105" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K5" s="104" t="s">
         <v>8</v>
@@ -4433,10 +4295,10 @@
       <c r="C7" s="106"/>
       <c r="D7" s="106"/>
       <c r="E7" s="101" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="102" t="s">
         <v>21</v>
@@ -4446,16 +4308,16 @@
       </c>
       <c r="I7" s="102"/>
       <c r="J7" s="102" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K7" s="107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="98"/>
       <c r="C8" s="108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="109"/>
       <c r="E8" s="101"/>
@@ -4483,7 +4345,7 @@
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
       <c r="E10" s="106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="111" t="s">
         <v>22</v>
@@ -4492,20 +4354,20 @@
         <v>2000</v>
       </c>
       <c r="H10" s="112" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I10" s="113"/>
       <c r="J10" s="112" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K10" s="114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="98"/>
       <c r="C11" s="115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="116"/>
       <c r="E11" s="106"/>
@@ -4533,20 +4395,20 @@
       <c r="C13" s="106"/>
       <c r="D13" s="106"/>
       <c r="E13" s="106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="101" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="102"/>
       <c r="J13" s="102" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K13" s="114"/>
     </row>
@@ -4567,7 +4429,7 @@
     <row r="15" spans="2:11">
       <c r="B15" s="98"/>
       <c r="C15" s="110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -4595,7 +4457,7 @@
       <c r="C17" s="106"/>
       <c r="D17" s="106"/>
       <c r="E17" s="106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="101" t="s">
         <v>5</v>
@@ -4604,18 +4466,18 @@
         <v>2013</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I17" s="102"/>
       <c r="J17" s="102"/>
       <c r="K17" s="114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="98"/>
       <c r="C18" s="110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" s="106"/>
       <c r="E18" s="106"/>
@@ -4629,7 +4491,7 @@
     <row r="19" spans="2:11">
       <c r="B19" s="98"/>
       <c r="C19" s="110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="101"/>
@@ -4657,7 +4519,7 @@
       <c r="C21" s="106"/>
       <c r="D21" s="106"/>
       <c r="E21" s="93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="106" t="s">
         <v>5</v>
@@ -4665,21 +4527,21 @@
       <c r="G21" s="106"/>
       <c r="H21" s="106"/>
       <c r="I21" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="117"/>
       <c r="K21" s="114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="98"/>
       <c r="C22" s="110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F22" s="106"/>
       <c r="G22" s="106"/>
@@ -4705,7 +4567,7 @@
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
       <c r="E24" s="101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F24" s="106" t="s">
         <v>5</v>
@@ -4713,21 +4575,21 @@
       <c r="G24" s="106"/>
       <c r="H24" s="106"/>
       <c r="I24" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" s="117"/>
       <c r="K24" s="114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="98"/>
       <c r="C25" s="110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="106"/>
       <c r="E25" s="101" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="106"/>
       <c r="G25" s="106"/>
@@ -4759,36 +4621,36 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="139" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="139" customWidth="1"/>
-    <col min="3" max="16384" width="10.7109375" style="139"/>
+    <col min="1" max="1" width="6.33203125" style="133" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="133" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="133"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
     </row>
     <row r="3" spans="2:14" s="9" customFormat="1">
-      <c r="B3" s="145"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4802,1186 +4664,1186 @@
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="143"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="143"/>
-      <c r="C6" s="144" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="143"/>
-      <c r="C7" s="144" t="s">
+      <c r="B7" s="137"/>
+      <c r="C7" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="138"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="137"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="137"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="137"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="137"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="137"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="137"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="137"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138">
+        <v>2700</v>
+      </c>
+      <c r="E19" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="138">
+        <v>27</v>
+      </c>
+      <c r="E20" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="138">
+        <v>15</v>
+      </c>
+      <c r="E21" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="137"/>
+      <c r="C24" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+    </row>
+    <row r="33" spans="2:14">
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+    </row>
+    <row r="34" spans="2:14">
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="138"/>
+      <c r="L34" s="138"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
+    </row>
+    <row r="35" spans="2:14">
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
+      <c r="E35" s="138"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="138"/>
+      <c r="M35" s="138"/>
+      <c r="N35" s="138"/>
+    </row>
+    <row r="36" spans="2:14">
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="138"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="138"/>
+      <c r="M36" s="138"/>
+      <c r="N36" s="138"/>
+    </row>
+    <row r="37" spans="2:14">
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="138">
+        <v>4800000</v>
+      </c>
+      <c r="E37" s="138" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="138"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
+    </row>
+    <row r="38" spans="2:14">
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+    </row>
+    <row r="39" spans="2:14">
+      <c r="B39" s="137"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="138"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="138"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+    </row>
+    <row r="41" spans="2:14">
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="138"/>
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+    </row>
+    <row r="42" spans="2:14">
+      <c r="B42" s="137"/>
+      <c r="C42" s="138" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="137"/>
+      <c r="C43" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="138"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="138"/>
+      <c r="N45" s="138"/>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+    </row>
+    <row r="47" spans="2:14">
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="138"/>
+      <c r="E47" s="138">
+        <v>2.5</v>
+      </c>
+      <c r="F47" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="138"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+    </row>
+    <row r="48" spans="2:14">
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
+      <c r="D49" s="138"/>
+      <c r="E49" s="138"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="138"/>
+      <c r="K49" s="138"/>
+      <c r="L49" s="138"/>
+      <c r="M49" s="138"/>
+      <c r="N49" s="138"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="137"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138">
+        <v>20</v>
+      </c>
+      <c r="F53" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="138"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="138"/>
+      <c r="J53" s="138"/>
+      <c r="K53" s="138"/>
+      <c r="L53" s="138"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="137"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="138"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138"/>
+      <c r="J54" s="138"/>
+      <c r="K54" s="138"/>
+      <c r="L54" s="138"/>
+      <c r="M54" s="138"/>
+      <c r="N54" s="138"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="137"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="138"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="138"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="138"/>
+      <c r="J55" s="138"/>
+      <c r="K55" s="138"/>
+      <c r="L55" s="138"/>
+      <c r="M55" s="138"/>
+      <c r="N55" s="138"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="137"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="138"/>
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138"/>
+      <c r="J57" s="138"/>
+      <c r="K57" s="138"/>
+      <c r="L57" s="138"/>
+      <c r="M57" s="138"/>
+      <c r="N57" s="138"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="138"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
+      <c r="G59" s="138"/>
+      <c r="H59" s="138"/>
+      <c r="I59" s="138"/>
+      <c r="J59" s="138"/>
+      <c r="K59" s="138"/>
+      <c r="L59" s="138"/>
+      <c r="M59" s="138"/>
+      <c r="N59" s="138"/>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="138"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="137"/>
+      <c r="C61" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="138"/>
+      <c r="E61" s="138"/>
+      <c r="F61" s="138"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="138"/>
+      <c r="J61" s="138"/>
+      <c r="K61" s="138"/>
+      <c r="L61" s="138"/>
+      <c r="M61" s="138"/>
+      <c r="N61" s="138"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="137"/>
+      <c r="C62" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="144"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="143"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="144"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="143"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="144"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="143"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="143"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="144"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="143"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="144"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="143"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="143"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="143"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="143"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144">
-        <v>2700</v>
-      </c>
-      <c r="E19" s="144" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="144"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="143"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144">
-        <v>27</v>
-      </c>
-      <c r="E20" s="144" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="143"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144">
-        <v>15</v>
-      </c>
-      <c r="E21" s="144" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="144"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="143"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="144"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="143"/>
-      <c r="C24" s="144" t="s">
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="138"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="138"/>
+      <c r="K63" s="138"/>
+      <c r="L63" s="138"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="138"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="138"/>
+      <c r="N64" s="138"/>
+    </row>
+    <row r="65" spans="2:14">
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="138"/>
+      <c r="E65" s="138"/>
+      <c r="F65" s="138"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="138"/>
+      <c r="L65" s="138"/>
+      <c r="M65" s="138"/>
+      <c r="N65" s="138"/>
+    </row>
+    <row r="66" spans="2:14">
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
+      <c r="G66" s="138"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="138"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="138"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="138"/>
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
+      <c r="G67" s="138"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="138"/>
+      <c r="J67" s="138"/>
+      <c r="K67" s="138"/>
+      <c r="L67" s="138"/>
+      <c r="M67" s="138"/>
+      <c r="N67" s="138"/>
+    </row>
+    <row r="68" spans="2:14">
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="138"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="138"/>
+      <c r="K68" s="138"/>
+      <c r="L68" s="138"/>
+      <c r="M68" s="138"/>
+      <c r="N68" s="138"/>
+    </row>
+    <row r="69" spans="2:14">
+      <c r="B69" s="137"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="138"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="138"/>
+      <c r="J69" s="138"/>
+      <c r="K69" s="138"/>
+      <c r="L69" s="138"/>
+      <c r="M69" s="138"/>
+      <c r="N69" s="138"/>
+    </row>
+    <row r="70" spans="2:14">
+      <c r="B70" s="137"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="138"/>
+      <c r="E70" s="138">
+        <v>30</v>
+      </c>
+      <c r="F70" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="144"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="143"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="144"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="143"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="144"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="143"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="144"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="143"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="143"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="143"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="143"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="143"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="143"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="143"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="143"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144">
-        <v>4800000</v>
-      </c>
-      <c r="E37" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="143"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="143"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="143"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="143"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="143"/>
-      <c r="C42" s="144" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="143"/>
-      <c r="C43" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="144"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="143"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" s="143"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" s="143"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" s="143"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144">
-        <v>2.5</v>
-      </c>
-      <c r="F47" s="144" t="s">
-        <v>149</v>
-      </c>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" s="143"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
-      <c r="M49" s="144"/>
-      <c r="N49" s="144"/>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" s="143"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
-      <c r="M50" s="144"/>
-      <c r="N50" s="144"/>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" s="143"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="143"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="143"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144">
-        <v>20</v>
-      </c>
-      <c r="F53" s="144" t="s">
-        <v>149</v>
-      </c>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="143"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="144"/>
-      <c r="N54" s="144"/>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="143"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" s="143"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="144"/>
-      <c r="M56" s="144"/>
-      <c r="N56" s="144"/>
-    </row>
-    <row r="57" spans="2:14">
-      <c r="B57" s="143"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
-      <c r="M57" s="144"/>
-      <c r="N57" s="144"/>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" s="143"/>
-      <c r="C58" s="144"/>
-      <c r="D58" s="144"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="144"/>
-      <c r="G58" s="144"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="144"/>
-      <c r="K58" s="144"/>
-      <c r="L58" s="144"/>
-      <c r="M58" s="144"/>
-      <c r="N58" s="144"/>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" s="143"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="144"/>
-      <c r="K59" s="144"/>
-      <c r="L59" s="144"/>
-      <c r="M59" s="144"/>
-      <c r="N59" s="144"/>
-    </row>
-    <row r="60" spans="2:14">
-      <c r="B60" s="143"/>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" s="143"/>
-      <c r="C61" s="144" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="144"/>
-      <c r="N61" s="144"/>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" s="143"/>
-      <c r="C62" s="144" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="144"/>
-      <c r="N62" s="144"/>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" s="143"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="143"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="144"/>
-      <c r="M64" s="144"/>
-      <c r="N64" s="144"/>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="143"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
-      <c r="M65" s="144"/>
-      <c r="N65" s="144"/>
-    </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="143"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="144"/>
-      <c r="M66" s="144"/>
-      <c r="N66" s="144"/>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="143"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="144"/>
-      <c r="M67" s="144"/>
-      <c r="N67" s="144"/>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" s="143"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="144"/>
-      <c r="M68" s="144"/>
-      <c r="N68" s="144"/>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" s="143"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
-      <c r="M69" s="144"/>
-      <c r="N69" s="144"/>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="143"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144">
-        <v>30</v>
-      </c>
-      <c r="F70" s="144" t="s">
-        <v>149</v>
-      </c>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="144"/>
-      <c r="L70" s="144"/>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
+      <c r="G70" s="138"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="138"/>
+      <c r="J70" s="138"/>
+      <c r="K70" s="138"/>
+      <c r="L70" s="138"/>
+      <c r="M70" s="138"/>
+      <c r="N70" s="138"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="143"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
-      <c r="M71" s="144"/>
-      <c r="N71" s="144"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
+      <c r="F71" s="138"/>
+      <c r="G71" s="138"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="138"/>
+      <c r="J71" s="138"/>
+      <c r="K71" s="138"/>
+      <c r="L71" s="138"/>
+      <c r="M71" s="138"/>
+      <c r="N71" s="138"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="143"/>
-      <c r="C72" s="144"/>
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="144"/>
-      <c r="G72" s="144"/>
-      <c r="H72" s="144"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="144"/>
-      <c r="K72" s="144"/>
-      <c r="L72" s="144"/>
-      <c r="M72" s="144"/>
-      <c r="N72" s="144"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="138"/>
+      <c r="E72" s="138"/>
+      <c r="F72" s="138"/>
+      <c r="G72" s="138"/>
+      <c r="H72" s="138"/>
+      <c r="I72" s="138"/>
+      <c r="J72" s="138"/>
+      <c r="K72" s="138"/>
+      <c r="L72" s="138"/>
+      <c r="M72" s="138"/>
+      <c r="N72" s="138"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="143"/>
-      <c r="C73" s="144"/>
-      <c r="D73" s="144"/>
-      <c r="E73" s="144"/>
-      <c r="F73" s="144"/>
-      <c r="G73" s="144"/>
-      <c r="H73" s="144"/>
-      <c r="I73" s="144"/>
-      <c r="J73" s="144"/>
-      <c r="K73" s="144"/>
-      <c r="L73" s="144"/>
-      <c r="M73" s="144"/>
-      <c r="N73" s="144"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="138"/>
+      <c r="F73" s="138"/>
+      <c r="G73" s="138"/>
+      <c r="H73" s="138"/>
+      <c r="I73" s="138"/>
+      <c r="J73" s="138"/>
+      <c r="K73" s="138"/>
+      <c r="L73" s="138"/>
+      <c r="M73" s="138"/>
+      <c r="N73" s="138"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="143"/>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144"/>
-      <c r="H74" s="144"/>
-      <c r="I74" s="144"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="144"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="138"/>
+      <c r="F74" s="138"/>
+      <c r="G74" s="138"/>
+      <c r="H74" s="138"/>
+      <c r="I74" s="138"/>
+      <c r="J74" s="138"/>
+      <c r="K74" s="138"/>
+      <c r="L74" s="138"/>
+      <c r="M74" s="138"/>
+      <c r="N74" s="138"/>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="143"/>
-      <c r="C75" s="144"/>
-      <c r="D75" s="144"/>
-      <c r="E75" s="144"/>
-      <c r="F75" s="144"/>
-      <c r="G75" s="144"/>
-      <c r="H75" s="144"/>
-      <c r="I75" s="144"/>
-      <c r="J75" s="144"/>
-      <c r="K75" s="144"/>
-      <c r="L75" s="144"/>
-      <c r="M75" s="144"/>
-      <c r="N75" s="144"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="138"/>
+      <c r="E75" s="138"/>
+      <c r="F75" s="138"/>
+      <c r="G75" s="138"/>
+      <c r="H75" s="138"/>
+      <c r="I75" s="138"/>
+      <c r="J75" s="138"/>
+      <c r="K75" s="138"/>
+      <c r="L75" s="138"/>
+      <c r="M75" s="138"/>
+      <c r="N75" s="138"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="143"/>
-      <c r="C76" s="144"/>
-      <c r="D76" s="144"/>
-      <c r="E76" s="144"/>
-      <c r="F76" s="144"/>
-      <c r="G76" s="144"/>
-      <c r="H76" s="144"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="144"/>
-      <c r="K76" s="144"/>
-      <c r="L76" s="144"/>
-      <c r="M76" s="144"/>
-      <c r="N76" s="144"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="138"/>
+      <c r="E76" s="138"/>
+      <c r="F76" s="138"/>
+      <c r="G76" s="138"/>
+      <c r="H76" s="138"/>
+      <c r="I76" s="138"/>
+      <c r="J76" s="138"/>
+      <c r="K76" s="138"/>
+      <c r="L76" s="138"/>
+      <c r="M76" s="138"/>
+      <c r="N76" s="138"/>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="143"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
-      <c r="E77" s="144"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="144"/>
-      <c r="H77" s="144"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="144"/>
-      <c r="K77" s="144"/>
-      <c r="L77" s="144"/>
-      <c r="M77" s="144"/>
-      <c r="N77" s="144"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="138"/>
+      <c r="E77" s="138"/>
+      <c r="F77" s="138"/>
+      <c r="G77" s="138"/>
+      <c r="H77" s="138"/>
+      <c r="I77" s="138"/>
+      <c r="J77" s="138"/>
+      <c r="K77" s="138"/>
+      <c r="L77" s="138"/>
+      <c r="M77" s="138"/>
+      <c r="N77" s="138"/>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="143"/>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="144"/>
-      <c r="F78" s="144"/>
-      <c r="G78" s="144"/>
-      <c r="H78" s="144"/>
-      <c r="I78" s="144"/>
-      <c r="J78" s="144"/>
-      <c r="K78" s="144"/>
-      <c r="L78" s="144"/>
-      <c r="M78" s="144"/>
-      <c r="N78" s="144"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="138"/>
+      <c r="E78" s="138"/>
+      <c r="F78" s="138"/>
+      <c r="G78" s="138"/>
+      <c r="H78" s="138"/>
+      <c r="I78" s="138"/>
+      <c r="J78" s="138"/>
+      <c r="K78" s="138"/>
+      <c r="L78" s="138"/>
+      <c r="M78" s="138"/>
+      <c r="N78" s="138"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="143"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
-      <c r="E79" s="144"/>
-      <c r="F79" s="144"/>
-      <c r="G79" s="144"/>
-      <c r="H79" s="144"/>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="144"/>
-      <c r="M79" s="144"/>
-      <c r="N79" s="144"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="138"/>
+      <c r="E79" s="138"/>
+      <c r="F79" s="138"/>
+      <c r="G79" s="138"/>
+      <c r="H79" s="138"/>
+      <c r="I79" s="138"/>
+      <c r="J79" s="138"/>
+      <c r="K79" s="138"/>
+      <c r="L79" s="138"/>
+      <c r="M79" s="138"/>
+      <c r="N79" s="138"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
